--- a/disagreement_matrix/engineering_version/rsj_matrix_records/wine_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/wine_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,3749 +394,3359 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.003084631588746921</v>
+        <v>0.003701187179044377</v>
       </c>
       <c r="C2">
-        <v>0.003207388796793089</v>
+        <v>0.003862018759568817</v>
       </c>
       <c r="D2">
-        <v>0.005418074282482784</v>
+        <v>0.005646417681692992</v>
       </c>
       <c r="E2">
-        <v>0.003671535167427386</v>
+        <v>0.003889876982479229</v>
       </c>
       <c r="F2">
-        <v>0.005069688720525786</v>
+        <v>0.005397365546497975</v>
       </c>
       <c r="G2">
-        <v>0.002721356065256748</v>
+        <v>0.00335855655474373</v>
       </c>
       <c r="H2">
-        <v>0.002764276476259252</v>
-      </c>
-      <c r="I2">
-        <v>0.002533410174219328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.003395793732482245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00324474125593125</v>
+        <v>0.003850813702320213</v>
       </c>
       <c r="C3">
-        <v>0.002686162870445983</v>
+        <v>0.003227044694780483</v>
       </c>
       <c r="D3">
-        <v>0.004843820206297743</v>
+        <v>0.005229457941360907</v>
       </c>
       <c r="E3">
-        <v>0.002250987592863517</v>
+        <v>0.002693866492855039</v>
       </c>
       <c r="F3">
-        <v>0.003829924606565943</v>
+        <v>0.004237848688392405</v>
       </c>
       <c r="G3">
-        <v>0.001967377902314511</v>
+        <v>0.00238730276094625</v>
       </c>
       <c r="H3">
-        <v>0.001626971461063477</v>
-      </c>
-      <c r="I3">
-        <v>0.001520050901072522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.002033488725794379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00184992550854342</v>
+        <v>0.002233576670215763</v>
       </c>
       <c r="C4">
-        <v>0.001873804943470401</v>
+        <v>0.002272448533622172</v>
       </c>
       <c r="D4">
-        <v>0.00239695162216859</v>
+        <v>0.002424526795213964</v>
       </c>
       <c r="E4">
-        <v>0.002373327983000912</v>
+        <v>0.002392312338316636</v>
       </c>
       <c r="F4">
-        <v>0.003456979451797897</v>
+        <v>0.003480746410620575</v>
       </c>
       <c r="G4">
-        <v>0.00184883501645507</v>
+        <v>0.002260617726992546</v>
       </c>
       <c r="H4">
-        <v>0.001834661510909291</v>
-      </c>
-      <c r="I4">
-        <v>0.001797581502453213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.002230005449894403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003298126491780292</v>
+        <v>0.003926123451241156</v>
       </c>
       <c r="C5">
-        <v>0.001696684353759982</v>
+        <v>0.002110422664643453</v>
       </c>
       <c r="D5">
-        <v>0.003952021656836102</v>
+        <v>0.004217903273297787</v>
       </c>
       <c r="E5">
-        <v>0.002759516595468485</v>
+        <v>0.003140391815290879</v>
       </c>
       <c r="F5">
-        <v>0.004455493861753989</v>
+        <v>0.004770909951032832</v>
       </c>
       <c r="G5">
-        <v>0.00186232158297979</v>
+        <v>0.002303725544679177</v>
       </c>
       <c r="H5">
-        <v>0.001711753561917257</v>
-      </c>
-      <c r="I5">
-        <v>0.001655424764869226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.002128660819590022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0007008175484651257</v>
+        <v>0.0008454713179888817</v>
       </c>
       <c r="C6">
-        <v>0.001335037824268858</v>
+        <v>0.001625063409986837</v>
       </c>
       <c r="D6">
-        <v>0.001663602553768053</v>
+        <v>0.00173255956456001</v>
       </c>
       <c r="E6">
-        <v>0.001505253336258419</v>
+        <v>0.001613374674876128</v>
       </c>
       <c r="F6">
-        <v>0.001915657526809068</v>
+        <v>0.002022002004729057</v>
       </c>
       <c r="G6">
-        <v>0.0009091133481115142</v>
+        <v>0.001121009267456864</v>
       </c>
       <c r="H6">
-        <v>0.001884377214459021</v>
-      </c>
-      <c r="I6">
-        <v>0.0009947649105393709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.002188166015829438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001864099419858427</v>
+        <v>0.002265032434353351</v>
       </c>
       <c r="C7">
-        <v>0.002198841331891526</v>
+        <v>0.002642332030943218</v>
       </c>
       <c r="D7">
-        <v>0.00262997652824804</v>
+        <v>0.002715712100436342</v>
       </c>
       <c r="E7">
-        <v>0.002671252778046793</v>
+        <v>0.002794160286319248</v>
       </c>
       <c r="F7">
-        <v>0.003579715204166198</v>
+        <v>0.003639600358050831</v>
       </c>
       <c r="G7">
-        <v>0.001974323584119403</v>
+        <v>0.002415168992745536</v>
       </c>
       <c r="H7">
-        <v>0.001639356277669504</v>
-      </c>
-      <c r="I7">
-        <v>0.001805656310868604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.001965857491114859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001232279027680867</v>
+        <v>0.001487546439988041</v>
       </c>
       <c r="C8">
-        <v>0.001132112827081286</v>
+        <v>0.001403281340118002</v>
       </c>
       <c r="D8">
-        <v>0.001222287869588847</v>
+        <v>0.001275991020039691</v>
       </c>
       <c r="E8">
-        <v>0.00128961594124738</v>
+        <v>0.001331086079377613</v>
       </c>
       <c r="F8">
-        <v>0.001892453010715623</v>
+        <v>0.001947329099292395</v>
       </c>
       <c r="G8">
-        <v>0.00110226997077005</v>
+        <v>0.001353266210342747</v>
       </c>
       <c r="H8">
-        <v>0.0004627557535226304</v>
-      </c>
-      <c r="I8">
-        <v>0.0008971150880081733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.0004963056121477177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00288459081432527</v>
+        <v>0.003492997323424019</v>
       </c>
       <c r="C9">
-        <v>0.003117718039931775</v>
+        <v>0.003724122115269069</v>
       </c>
       <c r="D9">
-        <v>0.005477419805447417</v>
+        <v>0.00582523607541211</v>
       </c>
       <c r="E9">
-        <v>0.005930048620263182</v>
+        <v>0.006263483391277253</v>
       </c>
       <c r="F9">
-        <v>0.005533459069751917</v>
+        <v>0.005941689193283505</v>
       </c>
       <c r="G9">
-        <v>0.003179630955510742</v>
+        <v>0.003805141669907582</v>
       </c>
       <c r="H9">
-        <v>0.003255049257853995</v>
-      </c>
-      <c r="I9">
-        <v>0.003036877514735456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.003870016166711993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004587679487226838</v>
+        <v>0.005506319890457116</v>
       </c>
       <c r="C10">
-        <v>0.002876857753256723</v>
+        <v>0.003439234373978399</v>
       </c>
       <c r="D10">
-        <v>0.002568997558124793</v>
+        <v>0.002936622835425646</v>
       </c>
       <c r="E10">
-        <v>0.004556176818313841</v>
+        <v>0.004783301281331605</v>
       </c>
       <c r="F10">
-        <v>0.003772917902833613</v>
+        <v>0.004087271912326496</v>
       </c>
       <c r="G10">
-        <v>0.002131660957959278</v>
+        <v>0.002547950508847014</v>
       </c>
       <c r="H10">
-        <v>0.00165181949468969</v>
-      </c>
-      <c r="I10">
-        <v>0.001851686639619875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.002064545357553365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.002272934643214633</v>
+        <v>0.002805763379752464</v>
       </c>
       <c r="C11">
-        <v>0.00273160397288456</v>
+        <v>0.003319861611385664</v>
       </c>
       <c r="D11">
-        <v>0.003476648413592163</v>
+        <v>0.004053170208820104</v>
       </c>
       <c r="E11">
-        <v>0.003713986559866896</v>
+        <v>0.00396686765589216</v>
       </c>
       <c r="F11">
-        <v>0.006005367523177268</v>
+        <v>0.006430718169035372</v>
       </c>
       <c r="G11">
-        <v>0.001784729628375252</v>
+        <v>0.002211785002505005</v>
       </c>
       <c r="H11">
-        <v>0.002207470295042409</v>
-      </c>
-      <c r="I11">
-        <v>0.001774961509149802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.002731258445254269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.002184409232303907</v>
+        <v>0.002664604951871038</v>
       </c>
       <c r="C12">
-        <v>0.004193379410727667</v>
+        <v>0.005105459765666075</v>
       </c>
       <c r="D12">
-        <v>0.004177345816501604</v>
+        <v>0.004024016422397183</v>
       </c>
       <c r="E12">
-        <v>0.003539704306140837</v>
+        <v>0.003366927401798699</v>
       </c>
       <c r="F12">
-        <v>0.004911876833502743</v>
+        <v>0.004555987316289888</v>
       </c>
       <c r="G12">
-        <v>0.003936965041981057</v>
+        <v>0.004894405367152608</v>
       </c>
       <c r="H12">
-        <v>0.001611939496820678</v>
-      </c>
-      <c r="I12">
-        <v>0.003478117615041572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.001732586448560405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.000657523607660151</v>
+        <v>0.0007317646106744075</v>
       </c>
       <c r="C13">
-        <v>0.0008783243111471747</v>
+        <v>0.001080175363556637</v>
       </c>
       <c r="D13">
-        <v>0.001254553182034213</v>
+        <v>0.001225453952845261</v>
       </c>
       <c r="E13">
-        <v>0.001211349902038165</v>
+        <v>0.00119785289847923</v>
       </c>
       <c r="F13">
-        <v>0.0007275853713660517</v>
+        <v>0.0007296973895405897</v>
       </c>
       <c r="G13">
-        <v>0.0007208398836209514</v>
+        <v>0.0008957212408321635</v>
       </c>
       <c r="H13">
-        <v>0.0006703584250551532</v>
-      </c>
-      <c r="I13">
-        <v>0.000777654009808695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0008172044071260169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0002379766947372677</v>
+        <v>0.0002711576522725031</v>
       </c>
       <c r="C14">
-        <v>0.0004718063628770919</v>
+        <v>0.0005059871408970851</v>
       </c>
       <c r="D14">
-        <v>0.000155274077370483</v>
+        <v>0.0001824982764936994</v>
       </c>
       <c r="E14">
-        <v>0.0001511315808912163</v>
+        <v>0.0001888914275444061</v>
       </c>
       <c r="F14">
-        <v>0.0001696011387335076</v>
+        <v>0.0001879909708960135</v>
       </c>
       <c r="G14">
-        <v>0.0002204732204772035</v>
+        <v>0.0002490136533553516</v>
       </c>
       <c r="H14">
-        <v>0.0002718113060888428</v>
-      </c>
-      <c r="I14">
-        <v>0.000168327797702079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0003014392088675587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0005581819240234626</v>
+        <v>0.000647439018881512</v>
       </c>
       <c r="C15">
-        <v>0.000232572802031791</v>
+        <v>0.0002578185183129381</v>
       </c>
       <c r="D15">
-        <v>0.0001748288013634891</v>
+        <v>0.0001684064111946938</v>
       </c>
       <c r="E15">
-        <v>0.0001890223566691984</v>
+        <v>0.0001862481798999736</v>
       </c>
       <c r="F15">
-        <v>0.0004707571791952389</v>
+        <v>0.0004732652496236927</v>
       </c>
       <c r="G15">
-        <v>0.0002441394816423928</v>
+        <v>0.0002348873437843752</v>
       </c>
       <c r="H15">
-        <v>0.000214686739662431</v>
-      </c>
-      <c r="I15">
-        <v>0.0003417935637253667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0002096931003843482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0005992881904537614</v>
+        <v>0.0006841167378108257</v>
       </c>
       <c r="C16">
-        <v>0.0005926131119899597</v>
+        <v>0.0006582741528754607</v>
       </c>
       <c r="D16">
-        <v>0.001103992403023726</v>
+        <v>0.001103550371125861</v>
       </c>
       <c r="E16">
-        <v>0.001127855514055614</v>
+        <v>0.001114257372891531</v>
       </c>
       <c r="F16">
-        <v>0.0008424401920490358</v>
+        <v>0.0008568494175452264</v>
       </c>
       <c r="G16">
-        <v>0.0008734517422527739</v>
+        <v>0.001064164888849956</v>
       </c>
       <c r="H16">
-        <v>0.001053273757796815</v>
-      </c>
-      <c r="I16">
-        <v>0.0007924845024901843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.00126858619355233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0003474341531791645</v>
+        <v>0.0004188810960703012</v>
       </c>
       <c r="C17">
-        <v>0.0002804031493905997</v>
+        <v>0.0003028956182712393</v>
       </c>
       <c r="D17">
-        <v>0.0003494438116541096</v>
+        <v>0.0003656670578697976</v>
       </c>
       <c r="E17">
-        <v>0.0003168173864190746</v>
+        <v>0.0003385458891496235</v>
       </c>
       <c r="F17">
-        <v>0.0008924922216692077</v>
+        <v>0.0009349458136941612</v>
       </c>
       <c r="G17">
-        <v>0.0002888695689696863</v>
+        <v>0.0003387810179674154</v>
       </c>
       <c r="H17">
-        <v>0.0003139748468613546</v>
-      </c>
-      <c r="I17">
-        <v>0.0003190132143750511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.0003879741645763159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.002224876647989497</v>
+        <v>0.00251202311509681</v>
       </c>
       <c r="C18">
-        <v>0.0005809941910927268</v>
+        <v>0.0005906986032187737</v>
       </c>
       <c r="D18">
-        <v>0.0007064282684245075</v>
+        <v>0.0007262011548906225</v>
       </c>
       <c r="E18">
-        <v>0.0007774643205878383</v>
+        <v>0.000792107158756854</v>
       </c>
       <c r="F18">
-        <v>0.0006218449419481965</v>
+        <v>0.0007501139080687986</v>
       </c>
       <c r="G18">
-        <v>0.0005773994413270707</v>
+        <v>0.0005959573088217651</v>
       </c>
       <c r="H18">
-        <v>0.0005604586461368616</v>
-      </c>
-      <c r="I18">
-        <v>0.000747128218303624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.0006600961360682282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.004475673002829836</v>
+        <v>0.005464157595279807</v>
       </c>
       <c r="C19">
-        <v>0.002157159745130237</v>
+        <v>0.002599090173316717</v>
       </c>
       <c r="D19">
-        <v>0.003935917436119706</v>
+        <v>0.003877671748436214</v>
       </c>
       <c r="E19">
-        <v>0.003732578895583036</v>
+        <v>0.003619798985072057</v>
       </c>
       <c r="F19">
-        <v>0.005012028481740401</v>
+        <v>0.005005411223702654</v>
       </c>
       <c r="G19">
-        <v>0.001901663615979686</v>
+        <v>0.002234329423881257</v>
       </c>
       <c r="H19">
-        <v>0.003067411163349478</v>
-      </c>
-      <c r="I19">
-        <v>0.00297265460595032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.003833840660191639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0009522889459201643</v>
+        <v>0.001101690030587381</v>
       </c>
       <c r="C20">
-        <v>0.0004377996079612093</v>
+        <v>0.0004461720846948538</v>
       </c>
       <c r="D20">
-        <v>0.0003335359685919443</v>
+        <v>0.0003587081220811484</v>
       </c>
       <c r="E20">
-        <v>0.0006012406854090922</v>
+        <v>0.0005953018854483766</v>
       </c>
       <c r="F20">
-        <v>0.000456490041151134</v>
+        <v>0.0004682275852432881</v>
       </c>
       <c r="G20">
-        <v>0.0003667218467813054</v>
+        <v>0.0003959610506137566</v>
       </c>
       <c r="H20">
-        <v>0.0004276094965839993</v>
-      </c>
-      <c r="I20">
-        <v>0.0004636106740723286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0005236093281859726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0004255224273159625</v>
+        <v>0.0004922214809272767</v>
       </c>
       <c r="C21">
-        <v>0.0003673667957201212</v>
+        <v>0.0003923396737633908</v>
       </c>
       <c r="D21">
-        <v>0.0004114874535972353</v>
+        <v>0.0004481331759940169</v>
       </c>
       <c r="E21">
-        <v>0.0003775817409695201</v>
+        <v>0.0004345222045080964</v>
       </c>
       <c r="F21">
-        <v>0.000717826835284304</v>
+        <v>0.0007619031858868299</v>
       </c>
       <c r="G21">
-        <v>0.0004320825579149966</v>
+        <v>0.0004964936873254681</v>
       </c>
       <c r="H21">
-        <v>0.0004033040752257007</v>
-      </c>
-      <c r="I21">
-        <v>0.0003378320227865776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.0004706798056114622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.001017599568094002</v>
+        <v>0.001210828748987988</v>
       </c>
       <c r="C22">
-        <v>0.001091096635251067</v>
+        <v>0.001278263373589801</v>
       </c>
       <c r="D22">
-        <v>0.002390368205244988</v>
+        <v>0.002089876832164199</v>
       </c>
       <c r="E22">
-        <v>0.001889258814737556</v>
+        <v>0.001874250045365951</v>
       </c>
       <c r="F22">
-        <v>0.005207173618590105</v>
+        <v>0.005078592262845943</v>
       </c>
       <c r="G22">
-        <v>0.001690147677174814</v>
+        <v>0.002074818762000347</v>
       </c>
       <c r="H22">
-        <v>0.001077106654139257</v>
-      </c>
-      <c r="I22">
-        <v>0.00248194101625537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.001242754393375113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001197473443223421</v>
+        <v>0.001446253853001343</v>
       </c>
       <c r="C23">
-        <v>0.001166230951207191</v>
+        <v>0.001394575244255914</v>
       </c>
       <c r="D23">
-        <v>0.00161329647985829</v>
+        <v>0.001718940317541987</v>
       </c>
       <c r="E23">
-        <v>0.001487861539878459</v>
+        <v>0.001638626687671103</v>
       </c>
       <c r="F23">
-        <v>0.003234460238826154</v>
+        <v>0.003401552148638905</v>
       </c>
       <c r="G23">
-        <v>0.00138988350407605</v>
+        <v>0.001621275946452896</v>
       </c>
       <c r="H23">
-        <v>0.001425367613980011</v>
-      </c>
-      <c r="I23">
-        <v>0.00120287740289629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.001666983338101511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.001670648991486816</v>
+        <v>0.002034732049254661</v>
       </c>
       <c r="C24">
-        <v>0.0009986258316078253</v>
+        <v>0.001197086765526121</v>
       </c>
       <c r="D24">
-        <v>0.001988308021316434</v>
+        <v>0.00200768650190227</v>
       </c>
       <c r="E24">
-        <v>0.00215845293279007</v>
+        <v>0.002213393621595883</v>
       </c>
       <c r="F24">
-        <v>0.00203862814906057</v>
+        <v>0.002070806175079096</v>
       </c>
       <c r="G24">
-        <v>0.001155526823266301</v>
+        <v>0.001441213106404177</v>
       </c>
       <c r="H24">
-        <v>0.001446993825053319</v>
-      </c>
-      <c r="I24">
-        <v>0.001266334939935759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.001772247484653036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0001484280605638144</v>
+        <v>0.0001528345227205189</v>
       </c>
       <c r="C25">
-        <v>0.0001656529792622722</v>
+        <v>0.000159455900883134</v>
       </c>
       <c r="D25">
-        <v>0.0001311994106307892</v>
+        <v>0.0001236944744282824</v>
       </c>
       <c r="E25">
-        <v>0.0002845652714035522</v>
+        <v>0.0002759326537392371</v>
       </c>
       <c r="F25">
-        <v>0.0001012723517923066</v>
+        <v>9.883677419956784E-05</v>
       </c>
       <c r="G25">
-        <v>0.0002319207052107334</v>
+        <v>0.0002743607158283736</v>
       </c>
       <c r="H25">
-        <v>0.0001876113096532782</v>
-      </c>
-      <c r="I25">
-        <v>0.0001980223831582359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0002305274282635757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0007984643061130736</v>
+        <v>0.0007932004683660956</v>
       </c>
       <c r="C26">
-        <v>0.001995555467893608</v>
+        <v>0.002387741550630208</v>
       </c>
       <c r="D26">
-        <v>0.002964780558661671</v>
+        <v>0.002779805909710538</v>
       </c>
       <c r="E26">
-        <v>0.002641324000729337</v>
+        <v>0.002650027485299793</v>
       </c>
       <c r="F26">
-        <v>0.003372992264674029</v>
+        <v>0.00317306355798383</v>
       </c>
       <c r="G26">
-        <v>0.002360540521384658</v>
+        <v>0.002950349372350617</v>
       </c>
       <c r="H26">
-        <v>0.003769298083303759</v>
-      </c>
-      <c r="I26">
-        <v>0.002460146403515593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.004567205509545008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00120943185216599</v>
+        <v>0.001455959198862827</v>
       </c>
       <c r="C27">
-        <v>0.0009545963412649548</v>
+        <v>0.001186421636262771</v>
       </c>
       <c r="D27">
-        <v>0.001419598685738483</v>
+        <v>0.001424835913647377</v>
       </c>
       <c r="E27">
-        <v>0.001257099752362558</v>
+        <v>0.001329076071435826</v>
       </c>
       <c r="F27">
-        <v>0.002350531535078874</v>
+        <v>0.002387048643982733</v>
       </c>
       <c r="G27">
-        <v>0.0008839737903514451</v>
+        <v>0.001091784338927881</v>
       </c>
       <c r="H27">
-        <v>0.0008878485416932782</v>
-      </c>
-      <c r="I27">
-        <v>0.001039702792428825</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.001028011190450306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001060235209210916</v>
+        <v>0.001188860867887933</v>
       </c>
       <c r="C28">
-        <v>0.0003656255173241432</v>
+        <v>0.0004496644643091446</v>
       </c>
       <c r="D28">
-        <v>0.0004146936787490886</v>
+        <v>0.0004470225798303066</v>
       </c>
       <c r="E28">
-        <v>0.0002973019931184332</v>
+        <v>0.0003433830657812154</v>
       </c>
       <c r="F28">
-        <v>0.000297243454571995</v>
+        <v>0.000339109958523014</v>
       </c>
       <c r="G28">
-        <v>0.0003183533918290319</v>
+        <v>0.0003792821385191164</v>
       </c>
       <c r="H28">
-        <v>0.0006788273221426213</v>
-      </c>
-      <c r="I28">
-        <v>0.0003418964798460644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.0007152352000711979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.001088422719256109</v>
+        <v>0.001225493825473251</v>
       </c>
       <c r="C29">
-        <v>0.0003018169556313965</v>
+        <v>0.0003268567892986061</v>
       </c>
       <c r="D29">
-        <v>0.0006229940305079031</v>
+        <v>0.0006521746212017944</v>
       </c>
       <c r="E29">
-        <v>0.0004472315528276789</v>
+        <v>0.0004691022206990166</v>
       </c>
       <c r="F29">
-        <v>0.0004070900740863807</v>
+        <v>0.0004768973116111775</v>
       </c>
       <c r="G29">
-        <v>0.0003229175708626473</v>
+        <v>0.0003724297893178139</v>
       </c>
       <c r="H29">
-        <v>0.0003812150414319263</v>
-      </c>
-      <c r="I29">
-        <v>0.0004288567144704018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0004051554479925593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0006040760152621086</v>
+        <v>0.0007016372791402517</v>
       </c>
       <c r="C30">
-        <v>0.0006221715923269891</v>
+        <v>0.0007025264721764848</v>
       </c>
       <c r="D30">
-        <v>0.001188616724649306</v>
+        <v>0.001228320548929102</v>
       </c>
       <c r="E30">
-        <v>0.001484246503292333</v>
+        <v>0.001544662051666405</v>
       </c>
       <c r="F30">
-        <v>0.0005167607974722195</v>
+        <v>0.000637799789988193</v>
       </c>
       <c r="G30">
-        <v>0.0006394642812365761</v>
+        <v>0.0007753789243656458</v>
       </c>
       <c r="H30">
-        <v>0.0007274872136749312</v>
-      </c>
-      <c r="I30">
-        <v>0.000618870815876399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.000863908902506181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0002778149459284045</v>
+        <v>0.0003145226531756055</v>
       </c>
       <c r="C31">
-        <v>0.0003946169446663294</v>
+        <v>0.0004624345466048347</v>
       </c>
       <c r="D31">
-        <v>0.0004147485981004918</v>
+        <v>0.0005145068327916471</v>
       </c>
       <c r="E31">
-        <v>0.0009529811803916001</v>
+        <v>0.001053711832108679</v>
       </c>
       <c r="F31">
-        <v>0.001062780885048368</v>
+        <v>0.001231988996208016</v>
       </c>
       <c r="G31">
-        <v>0.0004804729522963091</v>
+        <v>0.0005448064240797654</v>
       </c>
       <c r="H31">
-        <v>0.0003167234986148924</v>
-      </c>
-      <c r="I31">
-        <v>0.0003066324416603886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.0003694210341569922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0002652662782763701</v>
+        <v>0.0002960339058798649</v>
       </c>
       <c r="C32">
-        <v>0.0002240212820069498</v>
+        <v>0.0002784143837942277</v>
       </c>
       <c r="D32">
-        <v>0.0002023454183057507</v>
+        <v>0.0002520876696433433</v>
       </c>
       <c r="E32">
-        <v>0.0003034001548010535</v>
+        <v>0.0003448121317335821</v>
       </c>
       <c r="F32">
-        <v>0.0002943435220887706</v>
+        <v>0.0003253286301955321</v>
       </c>
       <c r="G32">
-        <v>0.0003681659013163198</v>
+        <v>0.0003975056681305216</v>
       </c>
       <c r="H32">
-        <v>0.000652885987940997</v>
-      </c>
-      <c r="I32">
-        <v>0.0002330699910699505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0007022330016621479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0009339659858883821</v>
+        <v>0.001165641101181749</v>
       </c>
       <c r="C33">
-        <v>0.001498194487155246</v>
+        <v>0.001754395072676625</v>
       </c>
       <c r="D33">
-        <v>0.001445686316631789</v>
+        <v>0.001466452135210514</v>
       </c>
       <c r="E33">
-        <v>0.001466845243132213</v>
+        <v>0.00148175885281019</v>
       </c>
       <c r="F33">
-        <v>0.00184983303386663</v>
+        <v>0.001892838654943064</v>
       </c>
       <c r="G33">
-        <v>0.0009920458511074746</v>
+        <v>0.001236143590094673</v>
       </c>
       <c r="H33">
-        <v>0.0009716939667611539</v>
-      </c>
-      <c r="I33">
-        <v>0.001046846846938623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.001140932193238609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0005703674584207725</v>
+        <v>0.0006327091488220849</v>
       </c>
       <c r="C34">
-        <v>0.0008196795420843132</v>
+        <v>0.0009603601881666266</v>
       </c>
       <c r="D34">
-        <v>0.0007889204308711206</v>
+        <v>0.0007838354981705387</v>
       </c>
       <c r="E34">
-        <v>0.0006823330659672642</v>
+        <v>0.0006900447542385306</v>
       </c>
       <c r="F34">
-        <v>0.0007475249274118901</v>
+        <v>0.0007438143579100253</v>
       </c>
       <c r="G34">
-        <v>0.0006948141175613371</v>
+        <v>0.0008342025384614161</v>
       </c>
       <c r="H34">
-        <v>0.0005551658498478276</v>
-      </c>
-      <c r="I34">
-        <v>0.0006524210615132666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.0006124389278954126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0002090248239057722</v>
+        <v>0.0002544108832070057</v>
       </c>
       <c r="C35">
-        <v>0.0002943258909471088</v>
+        <v>0.0003383527418506811</v>
       </c>
       <c r="D35">
-        <v>0.0003463107485318986</v>
+        <v>0.0003684073593528923</v>
       </c>
       <c r="E35">
-        <v>0.000380163636114019</v>
+        <v>0.000406570255564396</v>
       </c>
       <c r="F35">
-        <v>0.0003644363589248552</v>
+        <v>0.000391949569518041</v>
       </c>
       <c r="G35">
-        <v>0.0002081646287686199</v>
+        <v>0.0002506394263053933</v>
       </c>
       <c r="H35">
-        <v>0.0001766697594430706</v>
-      </c>
-      <c r="I35">
-        <v>0.0001939889886866839</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.0002208106457413539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0006697723647368121</v>
+        <v>0.000737462302738724</v>
       </c>
       <c r="C36">
-        <v>0.0003604519203176096</v>
+        <v>0.0004217127239392602</v>
       </c>
       <c r="D36">
-        <v>0.0003776468867628414</v>
+        <v>0.0003900055806373681</v>
       </c>
       <c r="E36">
-        <v>0.0003887603955091831</v>
+        <v>0.0004014860043262955</v>
       </c>
       <c r="F36">
-        <v>0.0001806357802615339</v>
+        <v>0.0002247011437139396</v>
       </c>
       <c r="G36">
-        <v>0.0004061457115604236</v>
+        <v>0.0004242380373967288</v>
       </c>
       <c r="H36">
-        <v>0.0002788327430609448</v>
-      </c>
-      <c r="I36">
-        <v>0.0003081112370297339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0003427416264946961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.001175570108390198</v>
+        <v>0.001354311666323138</v>
       </c>
       <c r="C37">
-        <v>0.0004570595786103497</v>
+        <v>0.0005177193644768625</v>
       </c>
       <c r="D37">
-        <v>0.000804139791217624</v>
+        <v>0.0008063509382037438</v>
       </c>
       <c r="E37">
-        <v>0.0007103479699360407</v>
+        <v>0.0007213565425107842</v>
       </c>
       <c r="F37">
-        <v>0.0003946385206123399</v>
+        <v>0.0004235123378563297</v>
       </c>
       <c r="G37">
-        <v>0.0005150264720990685</v>
+        <v>0.0006313219628224977</v>
       </c>
       <c r="H37">
-        <v>0.0004583127514211114</v>
-      </c>
-      <c r="I37">
-        <v>0.0005653037656766275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.0004821266875687609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0003892240464932653</v>
+        <v>0.0004801356727702374</v>
       </c>
       <c r="C38">
-        <v>0.0005458986327734186</v>
+        <v>0.000621540231215059</v>
       </c>
       <c r="D38">
-        <v>0.0003816247769878014</v>
+        <v>0.0003674150286042723</v>
       </c>
       <c r="E38">
-        <v>0.0003813688308413817</v>
+        <v>0.0003699490164934666</v>
       </c>
       <c r="F38">
-        <v>0.0002398927460383298</v>
+        <v>0.0002273415359170832</v>
       </c>
       <c r="G38">
-        <v>0.000286282954362</v>
+        <v>0.0003113812178382531</v>
       </c>
       <c r="H38">
-        <v>0.0002913058747790362</v>
-      </c>
-      <c r="I38">
-        <v>0.0003828281418799884</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0002879090416944482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0002373117813233526</v>
+        <v>0.0002832743744824324</v>
       </c>
       <c r="C39">
-        <v>0.000300012155511028</v>
+        <v>0.0003627377034522926</v>
       </c>
       <c r="D39">
-        <v>0.0006695175697059316</v>
+        <v>0.0006778581757923426</v>
       </c>
       <c r="E39">
-        <v>0.0003903829865455999</v>
+        <v>0.0003904295023118705</v>
       </c>
       <c r="F39">
-        <v>0.0001341938819780018</v>
+        <v>0.0001621099937225348</v>
       </c>
       <c r="G39">
-        <v>0.0002185771325079727</v>
+        <v>0.0002613592038606528</v>
       </c>
       <c r="H39">
-        <v>0.000253546873806091</v>
-      </c>
-      <c r="I39">
-        <v>0.0002721500480660728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.0002762086951398097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0003006018157917138</v>
+        <v>0.0003742018113571337</v>
       </c>
       <c r="C40">
-        <v>0.0002875963776303274</v>
+        <v>0.000359453694327585</v>
       </c>
       <c r="D40">
-        <v>0.0006801136527566844</v>
+        <v>0.0006940373241576099</v>
       </c>
       <c r="E40">
-        <v>0.0006329297212785919</v>
+        <v>0.0006539670415816998</v>
       </c>
       <c r="F40">
-        <v>0.0002733348700018599</v>
+        <v>0.0003016024858794375</v>
       </c>
       <c r="G40">
-        <v>0.0004137936185197011</v>
+        <v>0.0004871654324851652</v>
       </c>
       <c r="H40">
-        <v>0.0002888442881353066</v>
-      </c>
-      <c r="I40">
-        <v>0.0002917793576487251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0003610134111890603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0003692121474616921</v>
+        <v>0.0004076687163950552</v>
       </c>
       <c r="C41">
-        <v>0.0003156196879904781</v>
+        <v>0.0003718719065792336</v>
       </c>
       <c r="D41">
-        <v>0.000547630096833705</v>
+        <v>0.0005358781969398439</v>
       </c>
       <c r="E41">
-        <v>0.000489709460702737</v>
+        <v>0.0004745974856112661</v>
       </c>
       <c r="F41">
-        <v>0.0003780586583575047</v>
+        <v>0.0003676284321383344</v>
       </c>
       <c r="G41">
-        <v>0.0004116619881295612</v>
+        <v>0.0004904546767523268</v>
       </c>
       <c r="H41">
-        <v>0.0003067067736498223</v>
-      </c>
-      <c r="I41">
-        <v>0.0004018899585601694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.000372457278541141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.001111512151253965</v>
+        <v>0.001201600669348336</v>
       </c>
       <c r="C42">
-        <v>0.00050766942215802</v>
+        <v>0.0006345147960143381</v>
       </c>
       <c r="D42">
-        <v>0.0008671069425718369</v>
+        <v>0.0009277249866139027</v>
       </c>
       <c r="E42">
-        <v>0.0009276515330608501</v>
+        <v>0.0009977338644978481</v>
       </c>
       <c r="F42">
-        <v>0.0006541303403778283</v>
+        <v>0.0007391629905755433</v>
       </c>
       <c r="G42">
-        <v>0.0005385043392502622</v>
+        <v>0.0006635705776147343</v>
       </c>
       <c r="H42">
-        <v>0.0006119223948044595</v>
-      </c>
-      <c r="I42">
-        <v>0.0005257647969718521</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.0007009657748810989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0002613734457213925</v>
+        <v>0.0003139036278058612</v>
       </c>
       <c r="C43">
-        <v>0.0002209890656961525</v>
+        <v>0.0002559289678166159</v>
       </c>
       <c r="D43">
-        <v>0.0004119820144800391</v>
+        <v>0.0004082970950829424</v>
       </c>
       <c r="E43">
-        <v>0.0005494605534390844</v>
+        <v>0.0005509534269295653</v>
       </c>
       <c r="F43">
-        <v>0.0001682245580243025</v>
+        <v>0.0002002222055818991</v>
       </c>
       <c r="G43">
-        <v>0.0002474089007001711</v>
+        <v>0.000270208330548482</v>
       </c>
       <c r="H43">
-        <v>0.0002536044247429677</v>
-      </c>
-      <c r="I43">
-        <v>0.0002625219481429826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0003133859458848156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0004653407502692087</v>
+        <v>0.0005434416762878899</v>
       </c>
       <c r="C44">
-        <v>0.0004689281161660392</v>
+        <v>0.0005210837324835701</v>
       </c>
       <c r="D44">
-        <v>0.0007153389424713178</v>
+        <v>0.0007191443153371259</v>
       </c>
       <c r="E44">
-        <v>0.001097253860621829</v>
+        <v>0.001106837679607766</v>
       </c>
       <c r="F44">
-        <v>0.0003860666511716038</v>
+        <v>0.0004022618870833921</v>
       </c>
       <c r="G44">
-        <v>0.0004553916919713118</v>
+        <v>0.0005545448202259954</v>
       </c>
       <c r="H44">
-        <v>0.0005695939566719452</v>
-      </c>
-      <c r="I44">
-        <v>0.0005342058356012542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.000681826026023702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9.834735386601386E-05</v>
+        <v>0.0001176872193253435</v>
       </c>
       <c r="C45">
-        <v>0.0003525682758757528</v>
+        <v>0.0003624330811721188</v>
       </c>
       <c r="D45">
-        <v>7.867250084623514E-05</v>
+        <v>9.832752215038042E-05</v>
       </c>
       <c r="E45">
-        <v>0.0001083842920138502</v>
+        <v>0.0001220903696004318</v>
       </c>
       <c r="F45">
-        <v>9.131468113564519E-05</v>
+        <v>0.0001023339650671835</v>
       </c>
       <c r="G45">
-        <v>0.0001031770496056985</v>
+        <v>0.0001202578890321825</v>
       </c>
       <c r="H45">
-        <v>0.0001508653313002198</v>
-      </c>
-      <c r="I45">
-        <v>0.000106560859309222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.0001727127095023408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0007610933989676326</v>
+        <v>0.0009089464165887934</v>
       </c>
       <c r="C46">
-        <v>0.001305443180897321</v>
+        <v>0.001515610997974692</v>
       </c>
       <c r="D46">
-        <v>0.001055289032699955</v>
+        <v>0.001053378433354689</v>
       </c>
       <c r="E46">
-        <v>0.001005790669332964</v>
+        <v>0.001024421483305448</v>
       </c>
       <c r="F46">
-        <v>0.001727544582671658</v>
+        <v>0.001739776717036043</v>
       </c>
       <c r="G46">
-        <v>0.0009441854596024213</v>
+        <v>0.001149334823932195</v>
       </c>
       <c r="H46">
-        <v>0.0008385891671673175</v>
-      </c>
-      <c r="I46">
-        <v>0.0009352417853930532</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0009859806540683043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.001019146854693763</v>
+        <v>0.001130668127923134</v>
       </c>
       <c r="C47">
-        <v>0.0004093427891679446</v>
+        <v>0.0004682883258435175</v>
       </c>
       <c r="D47">
-        <v>0.0006968149468784866</v>
+        <v>0.0007596189431133264</v>
       </c>
       <c r="E47">
-        <v>0.0005779205421898056</v>
+        <v>0.000637099370430873</v>
       </c>
       <c r="F47">
-        <v>0.0008860483221498447</v>
+        <v>0.001002929703610146</v>
       </c>
       <c r="G47">
-        <v>0.0004163437741229923</v>
+        <v>0.0005203702699789817</v>
       </c>
       <c r="H47">
-        <v>0.00047354450676704</v>
-      </c>
-      <c r="I47">
-        <v>0.0004406287443878497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.0005286395357216573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.002660943139824444</v>
+        <v>0.003084531289747069</v>
       </c>
       <c r="C48">
-        <v>0.0008421179910247402</v>
+        <v>0.0009927493721489339</v>
       </c>
       <c r="D48">
-        <v>0.00198767150259209</v>
+        <v>0.00221567390170623</v>
       </c>
       <c r="E48">
-        <v>0.002374097856707084</v>
+        <v>0.00253097228443214</v>
       </c>
       <c r="F48">
-        <v>0.002208062331645156</v>
+        <v>0.002588376247393785</v>
       </c>
       <c r="G48">
-        <v>0.00255988816940682</v>
+        <v>0.002929313385080529</v>
       </c>
       <c r="H48">
-        <v>0.001216044466623119</v>
-      </c>
-      <c r="I48">
-        <v>0.001158231635548411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.00151988638050866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0007351981327102545</v>
+        <v>0.0008846746774612668</v>
       </c>
       <c r="C49">
-        <v>0.0006690508211812068</v>
+        <v>0.0007553489676049036</v>
       </c>
       <c r="D49">
-        <v>0.001193757134409483</v>
+        <v>0.001268884836297464</v>
       </c>
       <c r="E49">
-        <v>0.001357181694541786</v>
+        <v>0.001446241643574302</v>
       </c>
       <c r="F49">
-        <v>0.001664712889848187</v>
+        <v>0.001916241973761428</v>
       </c>
       <c r="G49">
-        <v>0.0007110276844132144</v>
+        <v>0.0008041431269618237</v>
       </c>
       <c r="H49">
-        <v>0.0009895059171663961</v>
-      </c>
-      <c r="I49">
-        <v>0.0007550667771632272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.001130275386915734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0002288786991131967</v>
+        <v>0.0002839041061545274</v>
       </c>
       <c r="C50">
-        <v>0.0005695017157756852</v>
+        <v>0.0006169885009733049</v>
       </c>
       <c r="D50">
-        <v>0.0001857671341726894</v>
+        <v>0.0002283725674948696</v>
       </c>
       <c r="E50">
-        <v>0.0002090004887078725</v>
+        <v>0.0002542463177466134</v>
       </c>
       <c r="F50">
-        <v>0.0001623639962099474</v>
+        <v>0.00018596577270907</v>
       </c>
       <c r="G50">
-        <v>0.0004368594785353109</v>
+        <v>0.0004631519043431829</v>
       </c>
       <c r="H50">
-        <v>0.000351182025111132</v>
-      </c>
-      <c r="I50">
-        <v>0.0002172589307992685</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.0003749770208722734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0008729180409813315</v>
+        <v>0.001040303007209784</v>
       </c>
       <c r="C51">
-        <v>0.0007449010407424234</v>
+        <v>0.0009170799028575638</v>
       </c>
       <c r="D51">
-        <v>0.001237716977577078</v>
+        <v>0.001308547783679387</v>
       </c>
       <c r="E51">
-        <v>0.001139119187951904</v>
+        <v>0.001206774355742431</v>
       </c>
       <c r="F51">
-        <v>0.001648021309947154</v>
+        <v>0.001755360362353158</v>
       </c>
       <c r="G51">
-        <v>0.0009454553438174119</v>
+        <v>0.001134247282042461</v>
       </c>
       <c r="H51">
-        <v>0.001469505649783471</v>
-      </c>
-      <c r="I51">
-        <v>0.0008142160941883538</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.001690972308410383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.001928918239506995</v>
+        <v>0.002346684275754166</v>
       </c>
       <c r="C52">
-        <v>0.0008257724491862334</v>
+        <v>0.000943845453848122</v>
       </c>
       <c r="D52">
-        <v>0.001697174761381844</v>
+        <v>0.001747026552963448</v>
       </c>
       <c r="E52">
-        <v>0.001906651480539914</v>
+        <v>0.001942633869380119</v>
       </c>
       <c r="F52">
-        <v>0.00191237679470531</v>
+        <v>0.001933624396602195</v>
       </c>
       <c r="G52">
-        <v>0.001032014404734452</v>
+        <v>0.001259610597603204</v>
       </c>
       <c r="H52">
-        <v>0.001272174258213032</v>
-      </c>
-      <c r="I52">
-        <v>0.001187988845842357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.001559155754668498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.000161207494362985</v>
+        <v>0.0001993702603451116</v>
       </c>
       <c r="C53">
-        <v>0.0004595507217627121</v>
+        <v>0.0005004204512508544</v>
       </c>
       <c r="D53">
-        <v>0.0001757484009833744</v>
+        <v>0.0002181423381351172</v>
       </c>
       <c r="E53">
-        <v>0.0002154491879328849</v>
+        <v>0.0002323660000095485</v>
       </c>
       <c r="F53">
-        <v>0.0003531162126376431</v>
+        <v>0.0003706554811826487</v>
       </c>
       <c r="G53">
-        <v>0.0001963234494627189</v>
+        <v>0.0002359923202344528</v>
       </c>
       <c r="H53">
-        <v>0.0002699955786980658</v>
-      </c>
-      <c r="I53">
-        <v>0.0001936303743924121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.0002900315198155842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0001659098300112154</v>
+        <v>0.0001786778618417482</v>
       </c>
       <c r="C54">
-        <v>0.0001516492859528395</v>
+        <v>0.0001616318540654561</v>
       </c>
       <c r="D54">
-        <v>0.000186510650035265</v>
+        <v>0.0001800262176401517</v>
       </c>
       <c r="E54">
-        <v>0.0001272078203692093</v>
+        <v>0.0001395483818796071</v>
       </c>
       <c r="F54">
-        <v>0.0003746382501490132</v>
+        <v>0.0003780163318539114</v>
       </c>
       <c r="G54">
-        <v>0.000151090243835296</v>
+        <v>0.0001602598070172934</v>
       </c>
       <c r="H54">
-        <v>0.0003255979873719196</v>
-      </c>
-      <c r="I54">
-        <v>0.0002231022902409837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.0003760462134440773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.000333746408222377</v>
+        <v>0.0003672473169897006</v>
       </c>
       <c r="C55">
-        <v>0.0003476107524386709</v>
+        <v>0.0004203752178955601</v>
       </c>
       <c r="D55">
-        <v>0.0003442040239351622</v>
+        <v>0.0003352537774237159</v>
       </c>
       <c r="E55">
-        <v>0.0005842514190924218</v>
+        <v>0.0005844920242000476</v>
       </c>
       <c r="F55">
-        <v>0.0002733934679772952</v>
+        <v>0.0002645457288444699</v>
       </c>
       <c r="G55">
-        <v>0.0003824682029216131</v>
+        <v>0.0004506424357588664</v>
       </c>
       <c r="H55">
-        <v>0.0002802269140823293</v>
-      </c>
-      <c r="I55">
-        <v>0.0003421607139911743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0003318189458781645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0008638293814188229</v>
+        <v>0.0009390129929896019</v>
       </c>
       <c r="C56">
-        <v>0.0003962058665687259</v>
+        <v>0.000438068875333333</v>
       </c>
       <c r="D56">
-        <v>0.000556841537007523</v>
+        <v>0.0005852451928521979</v>
       </c>
       <c r="E56">
-        <v>0.0004011889867958103</v>
+        <v>0.0004323376877005226</v>
       </c>
       <c r="F56">
-        <v>0.0005390597250544728</v>
+        <v>0.0005782015440370479</v>
       </c>
       <c r="G56">
-        <v>0.0003864572064260809</v>
+        <v>0.0004773800361280894</v>
       </c>
       <c r="H56">
-        <v>0.0003608678262948498</v>
-      </c>
-      <c r="I56">
-        <v>0.0004141228568210436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.0004122414356800816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0003154385775856193</v>
+        <v>0.0003801211774359345</v>
       </c>
       <c r="C57">
-        <v>0.0002891919245298036</v>
+        <v>0.0003517930147312373</v>
       </c>
       <c r="D57">
-        <v>0.0003199968769134669</v>
+        <v>0.0003122746448009287</v>
       </c>
       <c r="E57">
-        <v>0.0003707027966236705</v>
+        <v>0.0003604523661345502</v>
       </c>
       <c r="F57">
-        <v>0.0001957163916571372</v>
+        <v>0.0002090474350931554</v>
       </c>
       <c r="G57">
-        <v>0.000321163472896515</v>
+        <v>0.0003816534825821309</v>
       </c>
       <c r="H57">
-        <v>0.0003960367422536617</v>
-      </c>
-      <c r="I57">
-        <v>0.0002986182898213608</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.0003914337141253061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.001179684274025061</v>
+        <v>0.001363680749492215</v>
       </c>
       <c r="C58">
-        <v>0.0006340496236068131</v>
+        <v>0.0006663571971508575</v>
       </c>
       <c r="D58">
-        <v>0.0008373488921046024</v>
+        <v>0.0008588970955222481</v>
       </c>
       <c r="E58">
-        <v>0.0006800110297483645</v>
+        <v>0.00071159557311582</v>
       </c>
       <c r="F58">
-        <v>0.001485829308640077</v>
+        <v>0.0015249126467896</v>
       </c>
       <c r="G58">
-        <v>0.0008350044428309493</v>
+        <v>0.001035375164095666</v>
       </c>
       <c r="H58">
-        <v>0.0006683409639938291</v>
-      </c>
-      <c r="I58">
-        <v>0.0008160856584155524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.0007186570532081304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0004230507314802767</v>
+        <v>0.0004966367036811271</v>
       </c>
       <c r="C59">
-        <v>0.0002790980173147592</v>
+        <v>0.0003436531546309189</v>
       </c>
       <c r="D59">
-        <v>0.000573719913826106</v>
+        <v>0.000573236716868453</v>
       </c>
       <c r="E59">
-        <v>0.0002966380059025452</v>
+        <v>0.0002962845465123241</v>
       </c>
       <c r="F59">
-        <v>0.0003026946616371648</v>
+        <v>0.0002897493144834975</v>
       </c>
       <c r="G59">
-        <v>0.0003049692957317543</v>
+        <v>0.000348260481139293</v>
       </c>
       <c r="H59">
-        <v>0.0002723851599884496</v>
-      </c>
-      <c r="I59">
-        <v>0.0003463318667175145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.0002846722189618407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0002083927598735384</v>
+        <v>0.0002033438111827975</v>
       </c>
       <c r="C60">
-        <v>0.0001864901600915983</v>
+        <v>0.0001768031776037088</v>
       </c>
       <c r="D60">
-        <v>0.0001170176446396041</v>
+        <v>0.0001101848470827516</v>
       </c>
       <c r="E60">
-        <v>0.0003187152154413763</v>
+        <v>0.000311730751020226</v>
       </c>
       <c r="F60">
-        <v>0.0001033413726346416</v>
+        <v>9.718237298091405E-05</v>
       </c>
       <c r="G60">
-        <v>0.0002457847758273919</v>
+        <v>0.0003071949305162992</v>
       </c>
       <c r="H60">
-        <v>0.0001351231093705915</v>
-      </c>
-      <c r="I60">
-        <v>0.000214487725353024</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.0001688830352297807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0007405570569489905</v>
+        <v>0.0008508172969664902</v>
       </c>
       <c r="C61">
-        <v>0.0009972941451001293</v>
+        <v>0.001197336142824169</v>
       </c>
       <c r="D61">
-        <v>0.001187474729822495</v>
+        <v>0.001204599362104468</v>
       </c>
       <c r="E61">
-        <v>0.0009580767941876153</v>
+        <v>0.001006054065409657</v>
       </c>
       <c r="F61">
-        <v>0.001713710699288935</v>
+        <v>0.001741493812076404</v>
       </c>
       <c r="G61">
-        <v>0.0008389228024004148</v>
+        <v>0.001045853236306809</v>
       </c>
       <c r="H61">
-        <v>0.0007640147114276084</v>
-      </c>
-      <c r="I61">
-        <v>0.0008461465544083866</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.0008953568287653983</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0005427658453565291</v>
+        <v>0.0006724232300363549</v>
       </c>
       <c r="C62">
-        <v>0.0005328931246111398</v>
+        <v>0.0005827067414882441</v>
       </c>
       <c r="D62">
-        <v>0.0008752281809384917</v>
+        <v>0.0008607274873199697</v>
       </c>
       <c r="E62">
-        <v>0.0008798680341093488</v>
+        <v>0.0008671694566955981</v>
       </c>
       <c r="F62">
-        <v>0.0005800582260459666</v>
+        <v>0.0005780794575935692</v>
       </c>
       <c r="G62">
-        <v>0.0006018053568593553</v>
+        <v>0.0007405505891085293</v>
       </c>
       <c r="H62">
-        <v>0.000537992739399623</v>
-      </c>
-      <c r="I62">
-        <v>0.0005734355608106185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.0006692694290001263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.002641101237267956</v>
+        <v>0.003113869842461153</v>
       </c>
       <c r="C63">
-        <v>0.003374468993936426</v>
+        <v>0.003979189479402656</v>
       </c>
       <c r="D63">
-        <v>0.003118033746109162</v>
+        <v>0.003611332049759896</v>
       </c>
       <c r="E63">
-        <v>0.003100995780150688</v>
+        <v>0.003611742741771175</v>
       </c>
       <c r="F63">
-        <v>0.003904198286750134</v>
+        <v>0.004560581895030609</v>
       </c>
       <c r="G63">
-        <v>0.002583563195930528</v>
+        <v>0.003000877838879643</v>
       </c>
       <c r="H63">
-        <v>0.002098459465700784</v>
-      </c>
-      <c r="I63">
-        <v>0.001333701353149558</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.002478633136113874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0007059251959654712</v>
+        <v>0.0008424362100176979</v>
       </c>
       <c r="C64">
-        <v>0.0007747712733174488</v>
+        <v>0.0009540380146075139</v>
       </c>
       <c r="D64">
-        <v>0.001083514390998511</v>
+        <v>0.001104336995764435</v>
       </c>
       <c r="E64">
-        <v>0.00104311242375992</v>
+        <v>0.001070957456941008</v>
       </c>
       <c r="F64">
-        <v>0.001768730790432211</v>
+        <v>0.001820033565662372</v>
       </c>
       <c r="G64">
-        <v>0.000746584137574662</v>
+        <v>0.0009305042712197212</v>
       </c>
       <c r="H64">
-        <v>0.0007042732324461983</v>
-      </c>
-      <c r="I64">
-        <v>0.0007774032322117232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0008387507915531668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.003084938488641188</v>
+        <v>0.003628521495420261</v>
       </c>
       <c r="C65">
-        <v>0.0006106160609082921</v>
+        <v>0.0006941814569024367</v>
       </c>
       <c r="D65">
-        <v>0.0008063012245350964</v>
+        <v>0.0008586593148311786</v>
       </c>
       <c r="E65">
-        <v>0.0009467040913348879</v>
+        <v>0.001018853644670375</v>
       </c>
       <c r="F65">
-        <v>0.001142405908921664</v>
+        <v>0.001212390372087533</v>
       </c>
       <c r="G65">
-        <v>0.0005456636907881606</v>
+        <v>0.0005682373943539491</v>
       </c>
       <c r="H65">
-        <v>0.000635806674082</v>
-      </c>
-      <c r="I65">
-        <v>0.0008909223125505184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.0006201064566812637</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.000204184334325518</v>
+        <v>0.000201951967141335</v>
       </c>
       <c r="C66">
-        <v>8.232306861504614E-05</v>
+        <v>0.0001028902308384267</v>
       </c>
       <c r="D66">
-        <v>8.044300981234621E-05</v>
+        <v>8.110077016550451E-05</v>
       </c>
       <c r="E66">
-        <v>9.454204187259025E-05</v>
+        <v>9.483485306970539E-05</v>
       </c>
       <c r="F66">
-        <v>5.379146818095589E-05</v>
+        <v>6.13962542356475E-05</v>
       </c>
       <c r="G66">
-        <v>9.234816403305155E-05</v>
+        <v>0.0001135603596749966</v>
       </c>
       <c r="H66">
-        <v>0.0001102015016446436</v>
-      </c>
-      <c r="I66">
-        <v>8.541649476693774E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.0001347024422822451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0003306096274207795</v>
+        <v>0.0003858423867210343</v>
       </c>
       <c r="C67">
-        <v>0.0002936012249355692</v>
+        <v>0.0003641993153252874</v>
       </c>
       <c r="D67">
-        <v>0.0002693697754976086</v>
+        <v>0.0003132319299219416</v>
       </c>
       <c r="E67">
-        <v>0.0002965653771337219</v>
+        <v>0.0003450986488480129</v>
       </c>
       <c r="F67">
-        <v>0.0009892981210421438</v>
+        <v>0.001039530652592571</v>
       </c>
       <c r="G67">
-        <v>0.0003845777958636939</v>
+        <v>0.0004206313286493212</v>
       </c>
       <c r="H67">
-        <v>0.0004100958222951551</v>
-      </c>
-      <c r="I67">
-        <v>0.0003244445726719196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.000443195853849958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003852823457913864</v>
+        <v>0.004754469490343387</v>
       </c>
       <c r="C68">
-        <v>0.001743650494220123</v>
+        <v>0.002085190895394337</v>
       </c>
       <c r="D68">
-        <v>0.003292395659936353</v>
+        <v>0.003269348795305056</v>
       </c>
       <c r="E68">
-        <v>0.003509015249096211</v>
+        <v>0.003476483766442315</v>
       </c>
       <c r="F68">
-        <v>0.003580279523121003</v>
+        <v>0.003516032745783116</v>
       </c>
       <c r="G68">
-        <v>0.001794193666425673</v>
+        <v>0.002150794965300741</v>
       </c>
       <c r="H68">
-        <v>0.001580381694292986</v>
-      </c>
-      <c r="I68">
-        <v>0.002433113951939488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.001894891751525336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.000206637732694943</v>
+        <v>0.0002181254071435696</v>
       </c>
       <c r="C69">
-        <v>0.0002158664916042362</v>
+        <v>0.0002464699584091012</v>
       </c>
       <c r="D69">
-        <v>0.0001333104661259594</v>
+        <v>0.0001378511907909983</v>
       </c>
       <c r="E69">
-        <v>0.0002615179001369114</v>
+        <v>0.000281104477564735</v>
       </c>
       <c r="F69">
-        <v>0.0002054531846164932</v>
+        <v>0.0002205096428116906</v>
       </c>
       <c r="G69">
-        <v>0.0001652293644127605</v>
+        <v>0.0001759562670597061</v>
       </c>
       <c r="H69">
-        <v>0.0001792824892179952</v>
-      </c>
-      <c r="I69">
-        <v>0.0001924084870478865</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.000188435541989085</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0009398936355228505</v>
+        <v>0.001123129346019023</v>
       </c>
       <c r="C70">
-        <v>0.0007665339324252031</v>
+        <v>0.0009533370196900459</v>
       </c>
       <c r="D70">
-        <v>0.0009839605856428149</v>
+        <v>0.0009858445824491014</v>
       </c>
       <c r="E70">
-        <v>0.001040094140260135</v>
+        <v>0.001041125769528087</v>
       </c>
       <c r="F70">
-        <v>0.001378877155355143</v>
+        <v>0.001409986336504619</v>
       </c>
       <c r="G70">
-        <v>0.0008103551130487863</v>
+        <v>0.001003175972420887</v>
       </c>
       <c r="H70">
-        <v>0.0008573921074538256</v>
-      </c>
-      <c r="I70">
-        <v>0.0008100125977579495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.0009414519146859061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003630639179897204</v>
+        <v>0.0004281779804351202</v>
       </c>
       <c r="C71">
-        <v>0.0007041653176518101</v>
+        <v>0.0007570408316811968</v>
       </c>
       <c r="D71">
-        <v>0.0003233741491982156</v>
+        <v>0.0003888493027086974</v>
       </c>
       <c r="E71">
-        <v>0.0003905735500003425</v>
+        <v>0.000457013527639985</v>
       </c>
       <c r="F71">
-        <v>0.0006724178930876927</v>
+        <v>0.0007139110670185525</v>
       </c>
       <c r="G71">
-        <v>0.0003518342069062691</v>
+        <v>0.0004303303441078204</v>
       </c>
       <c r="H71">
-        <v>0.0007207467045313571</v>
-      </c>
-      <c r="I71">
-        <v>0.0003454735374791263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0008001204690838923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0007243236687568657</v>
+        <v>0.0007879118076843937</v>
       </c>
       <c r="C72">
-        <v>0.0002058131425637392</v>
+        <v>0.0002510651524449339</v>
       </c>
       <c r="D72">
-        <v>0.0001797577139420412</v>
+        <v>0.0002206572247851932</v>
       </c>
       <c r="E72">
-        <v>0.0002940361621298224</v>
+        <v>0.0003295664318370444</v>
       </c>
       <c r="F72">
-        <v>0.000182075825789119</v>
+        <v>0.0002110199493767043</v>
       </c>
       <c r="G72">
-        <v>0.000427656985320918</v>
+        <v>0.0004598913664081601</v>
       </c>
       <c r="H72">
-        <v>0.0002047201318948801</v>
-      </c>
-      <c r="I72">
-        <v>0.0002094980234298132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.000250721672713892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.000153661895442488</v>
+        <v>0.0001777167904688816</v>
       </c>
       <c r="C73">
-        <v>0.000161249749621691</v>
+        <v>0.0001913863882767866</v>
       </c>
       <c r="D73">
-        <v>0.0001476008363327066</v>
+        <v>0.0001567240079406928</v>
       </c>
       <c r="E73">
-        <v>0.0001647969765566414</v>
+        <v>0.0001745344406950668</v>
       </c>
       <c r="F73">
-        <v>0.0003705578882172118</v>
+        <v>0.0003851714286450701</v>
       </c>
       <c r="G73">
-        <v>0.0001688740432973446</v>
+        <v>0.0002057741727741736</v>
       </c>
       <c r="H73">
-        <v>0.0003338554068365879</v>
-      </c>
-      <c r="I73">
-        <v>0.0001700003989386342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.0003717579563978331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.004601732449521623</v>
+        <v>0.005751531689648181</v>
       </c>
       <c r="C74">
-        <v>0.004702749398744264</v>
+        <v>0.005877789012083315</v>
       </c>
       <c r="D74">
-        <v>0.006552930947382561</v>
+        <v>0.006529927734851593</v>
       </c>
       <c r="E74">
-        <v>0.007344322126853446</v>
+        <v>0.007229758843552434</v>
       </c>
       <c r="F74">
-        <v>0.009417217049178993</v>
+        <v>0.009415192739624288</v>
       </c>
       <c r="G74">
-        <v>0.004643870143055309</v>
+        <v>0.005804198023368372</v>
       </c>
       <c r="H74">
-        <v>0.004119017503653661</v>
-      </c>
-      <c r="I74">
-        <v>0.004887670678819106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.005004306787664474</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0003074552126674923</v>
+        <v>0.0003371029273855951</v>
       </c>
       <c r="C75">
-        <v>0.0001519933984776016</v>
+        <v>0.0001832495914351049</v>
       </c>
       <c r="D75">
-        <v>0.0001912831099918703</v>
+        <v>0.0002348671993190626</v>
       </c>
       <c r="E75">
-        <v>0.0003791635365863578</v>
+        <v>0.0004252702884176895</v>
       </c>
       <c r="F75">
-        <v>0.0002385155747162561</v>
+        <v>0.0002863604528902601</v>
       </c>
       <c r="G75">
-        <v>0.0003057708897957588</v>
+        <v>0.0003371775348689876</v>
       </c>
       <c r="H75">
-        <v>0.0002118006558532752</v>
-      </c>
-      <c r="I75">
-        <v>0.0001473258052118323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.0002440701304844412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0006955422312977698</v>
+        <v>0.0007571044014870763</v>
       </c>
       <c r="C76">
-        <v>0.0008880202587388848</v>
+        <v>0.001098912125691417</v>
       </c>
       <c r="D76">
-        <v>0.001333256576830015</v>
+        <v>0.001353047412188444</v>
       </c>
       <c r="E76">
-        <v>0.001669957058236989</v>
+        <v>0.001689052046040969</v>
       </c>
       <c r="F76">
-        <v>0.0008433288341827116</v>
+        <v>0.0008921217650374206</v>
       </c>
       <c r="G76">
-        <v>0.0007209081617590823</v>
+        <v>0.0008598486787660018</v>
       </c>
       <c r="H76">
-        <v>0.001094218513430642</v>
-      </c>
-      <c r="I76">
-        <v>0.0008836492587372716</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.001301020750188301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.001902176031596083</v>
+        <v>0.00236643377738073</v>
       </c>
       <c r="C77">
-        <v>0.002127597065845543</v>
+        <v>0.002659202023301944</v>
       </c>
       <c r="D77">
-        <v>0.003394681236848755</v>
+        <v>0.003393040986653408</v>
       </c>
       <c r="E77">
-        <v>0.003640211472114836</v>
+        <v>0.003628663443864588</v>
       </c>
       <c r="F77">
-        <v>0.003491723067919037</v>
+        <v>0.003547504670076268</v>
       </c>
       <c r="G77">
-        <v>0.001949542308676719</v>
+        <v>0.002417778233129683</v>
       </c>
       <c r="H77">
-        <v>0.002049983164779813</v>
-      </c>
-      <c r="I77">
-        <v>0.002101296944601792</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.002553392608505615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0004616941007309767</v>
+        <v>0.0005356147021946655</v>
       </c>
       <c r="C78">
-        <v>0.0004447797820790593</v>
+        <v>0.0005069029213529327</v>
       </c>
       <c r="D78">
-        <v>0.0003605577175507065</v>
+        <v>0.0004074879622285122</v>
       </c>
       <c r="E78">
-        <v>0.000587121820887318</v>
+        <v>0.0006389322576707552</v>
       </c>
       <c r="F78">
-        <v>0.001058534572560827</v>
+        <v>0.001119550587847032</v>
       </c>
       <c r="G78">
-        <v>0.0003904134857972134</v>
+        <v>0.0004825203922617426</v>
       </c>
       <c r="H78">
-        <v>0.0005321694492785024</v>
-      </c>
-      <c r="I78">
-        <v>0.0004043192900795929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.0005972121497296353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0005165233117614009</v>
+        <v>0.0006244092172445922</v>
       </c>
       <c r="C79">
-        <v>0.0004835332565024826</v>
+        <v>0.0005535012246878303</v>
       </c>
       <c r="D79">
-        <v>0.0006756569156985211</v>
+        <v>0.0006772718575444209</v>
       </c>
       <c r="E79">
-        <v>0.0007219169912963569</v>
+        <v>0.0007142706288090721</v>
       </c>
       <c r="F79">
-        <v>0.0009820860392881158</v>
+        <v>0.001001647120362956</v>
       </c>
       <c r="G79">
-        <v>0.0005135630426636794</v>
+        <v>0.0006271035113311139</v>
       </c>
       <c r="H79">
-        <v>0.0004890858273099693</v>
-      </c>
-      <c r="I79">
-        <v>0.0005684511637886226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.0005686680809310551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0004909307599599676</v>
+        <v>0.0006135937655681064</v>
       </c>
       <c r="C80">
-        <v>0.0003545881767910389</v>
+        <v>0.0004135987781119686</v>
       </c>
       <c r="D80">
-        <v>0.0004077233193044995</v>
+        <v>0.000388150360486622</v>
       </c>
       <c r="E80">
-        <v>0.0005119926209297519</v>
+        <v>0.0004946012887295703</v>
       </c>
       <c r="F80">
-        <v>0.0008384008684007887</v>
+        <v>0.0008165008103960783</v>
       </c>
       <c r="G80">
-        <v>0.000378383429006588</v>
+        <v>0.0004557114444719925</v>
       </c>
       <c r="H80">
-        <v>0.0003703904404688956</v>
-      </c>
-      <c r="I80">
-        <v>0.000493948591015271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.0003905298284214671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.00090232432139535</v>
+        <v>0.001083903517646473</v>
       </c>
       <c r="C81">
-        <v>0.0006958731477225277</v>
+        <v>0.0008579682755331753</v>
       </c>
       <c r="D81">
-        <v>0.0009091897555815345</v>
+        <v>0.0009141938923730475</v>
       </c>
       <c r="E81">
-        <v>0.0009306504396041499</v>
+        <v>0.0009359151669411247</v>
       </c>
       <c r="F81">
-        <v>0.001450958666922685</v>
+        <v>0.001496951305598621</v>
       </c>
       <c r="G81">
-        <v>0.0006722574717346324</v>
+        <v>0.0008116680515853071</v>
       </c>
       <c r="H81">
-        <v>0.0007375115495348379</v>
-      </c>
-      <c r="I81">
-        <v>0.0007677105822126884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.0008124614488439931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0005931494983939881</v>
+        <v>0.000678942145359917</v>
       </c>
       <c r="C82">
-        <v>0.0005165265927584423</v>
+        <v>0.0006455850436605603</v>
       </c>
       <c r="D82">
-        <v>0.0007723667692197198</v>
+        <v>0.0008163919821800419</v>
       </c>
       <c r="E82">
-        <v>0.001045582708285192</v>
+        <v>0.001104549655842458</v>
       </c>
       <c r="F82">
-        <v>0.0006003432569257766</v>
+        <v>0.0006501449885650142</v>
       </c>
       <c r="G82">
-        <v>0.0006381006788107009</v>
+        <v>0.0007139427327565979</v>
       </c>
       <c r="H82">
-        <v>0.0006686558088141145</v>
-      </c>
-      <c r="I82">
-        <v>0.0005495921656985574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.0007462740784741959</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0006457529027704169</v>
+        <v>0.0007256613022634626</v>
       </c>
       <c r="C83">
-        <v>0.0005678018933643127</v>
+        <v>0.0006480286749184293</v>
       </c>
       <c r="D83">
-        <v>0.0008689768892286414</v>
+        <v>0.0009378299366181143</v>
       </c>
       <c r="E83">
-        <v>0.000820926464214252</v>
+        <v>0.000886960669842268</v>
       </c>
       <c r="F83">
-        <v>0.0008026750232092391</v>
+        <v>0.0008940852051411657</v>
       </c>
       <c r="G83">
-        <v>0.0005156232692489428</v>
+        <v>0.0006157319090654989</v>
       </c>
       <c r="H83">
-        <v>0.0006620382248920726</v>
-      </c>
-      <c r="I83">
-        <v>0.0005138857364170068</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.0007534910226709369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0003838872475008801</v>
+        <v>0.0004313729575884585</v>
       </c>
       <c r="C84">
-        <v>0.0003771388974090201</v>
+        <v>0.0004119966942965953</v>
       </c>
       <c r="D84">
-        <v>0.0006097607619145503</v>
+        <v>0.0006086020384495658</v>
       </c>
       <c r="E84">
-        <v>0.0008801342038017871</v>
+        <v>0.000882396201816236</v>
       </c>
       <c r="F84">
-        <v>0.0003707855351812717</v>
+        <v>0.0003759511861542116</v>
       </c>
       <c r="G84">
-        <v>0.0003675847689825419</v>
+        <v>0.0004138205614996365</v>
       </c>
       <c r="H84">
-        <v>0.0006262024991241964</v>
-      </c>
-      <c r="I84">
-        <v>0.0005223512027145101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.0007418665366337252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0008679054360273148</v>
+        <v>0.0009605479632646675</v>
       </c>
       <c r="C85">
-        <v>0.0004770985403667729</v>
+        <v>0.0005521618459277656</v>
       </c>
       <c r="D85">
-        <v>0.0004193231983206898</v>
+        <v>0.0004534833891014326</v>
       </c>
       <c r="E85">
-        <v>0.0004232103257185037</v>
+        <v>0.0004563202859208921</v>
       </c>
       <c r="F85">
-        <v>0.0002744401309065088</v>
+        <v>0.0003342427895572506</v>
       </c>
       <c r="G85">
-        <v>0.0003436662338849454</v>
+        <v>0.0004200152969459494</v>
       </c>
       <c r="H85">
-        <v>0.0005349685150598903</v>
-      </c>
-      <c r="I85">
-        <v>0.0003448017870212114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0005675828166677631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0003345597303356029</v>
+        <v>0.0003625754312136366</v>
       </c>
       <c r="C86">
-        <v>0.0002719476703507052</v>
+        <v>0.0003002977385863573</v>
       </c>
       <c r="D86">
-        <v>0.0006831365333769822</v>
+        <v>0.0007176640830207187</v>
       </c>
       <c r="E86">
-        <v>0.000248475492356512</v>
+        <v>0.0002834755826420837</v>
       </c>
       <c r="F86">
-        <v>0.0002062719053281075</v>
+        <v>0.0002372638303417912</v>
       </c>
       <c r="G86">
-        <v>0.0003743903090495641</v>
+        <v>0.0004432465458817928</v>
       </c>
       <c r="H86">
-        <v>0.0006004599047060988</v>
-      </c>
-      <c r="I86">
-        <v>0.0003017717843496832</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.0006769845100757281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0004102476817088022</v>
+        <v>0.0004833504229804675</v>
       </c>
       <c r="C87">
-        <v>0.0003795975775224829</v>
+        <v>0.0004196316133025023</v>
       </c>
       <c r="D87">
-        <v>0.0005456478000829368</v>
+        <v>0.0005815560993929421</v>
       </c>
       <c r="E87">
-        <v>0.0003312828611189529</v>
+        <v>0.0003670876967469168</v>
       </c>
       <c r="F87">
-        <v>0.0006862294821537234</v>
+        <v>0.0007239139303194951</v>
       </c>
       <c r="G87">
-        <v>0.0003497872133952493</v>
+        <v>0.0004227343187853238</v>
       </c>
       <c r="H87">
-        <v>0.0005035772596209591</v>
-      </c>
-      <c r="I87">
-        <v>0.0003638419043986643</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.0005544980655911623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.00051002860037026</v>
+        <v>0.0006291719384323658</v>
       </c>
       <c r="C88">
-        <v>0.0003089119121651036</v>
+        <v>0.0003356764469566469</v>
       </c>
       <c r="D88">
-        <v>0.0003507369214621249</v>
+        <v>0.0003483160175491337</v>
       </c>
       <c r="E88">
-        <v>0.0005408647779266282</v>
+        <v>0.0005225933706591146</v>
       </c>
       <c r="F88">
-        <v>0.0004546957836564721</v>
+        <v>0.0004435438728732865</v>
       </c>
       <c r="G88">
-        <v>0.0002961306804191013</v>
+        <v>0.0003145682390530257</v>
       </c>
       <c r="H88">
-        <v>0.0003016612601857975</v>
-      </c>
-      <c r="I88">
-        <v>0.0004253722638667292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.0003278836790221131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0005486978845202116</v>
+        <v>0.0006019390887891154</v>
       </c>
       <c r="C89">
-        <v>0.0003597453711676975</v>
+        <v>0.0003950612537901548</v>
       </c>
       <c r="D89">
-        <v>0.0002241399850644961</v>
+        <v>0.0002628131306061564</v>
       </c>
       <c r="E89">
-        <v>0.0005023510535383086</v>
+        <v>0.0005562838590114414</v>
       </c>
       <c r="F89">
-        <v>0.0002684991045990143</v>
+        <v>0.0002853911699448157</v>
       </c>
       <c r="G89">
-        <v>0.0002721751328177751</v>
+        <v>0.0002929048563685541</v>
       </c>
       <c r="H89">
-        <v>0.0002426028225007365</v>
-      </c>
-      <c r="I89">
-        <v>0.0002805585447834286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.0002773815771289242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0005812632705364025</v>
+        <v>0.000686264061935471</v>
       </c>
       <c r="C90">
-        <v>0.0005986234868313187</v>
+        <v>0.0007204675194075736</v>
       </c>
       <c r="D90">
-        <v>0.001087984618178571</v>
+        <v>0.001067069797460411</v>
       </c>
       <c r="E90">
-        <v>0.001089730859986669</v>
+        <v>0.001069283763211223</v>
       </c>
       <c r="F90">
-        <v>0.0008438732902785415</v>
+        <v>0.0008279342928131437</v>
       </c>
       <c r="G90">
-        <v>0.0009852622182113743</v>
+        <v>0.001178486614501249</v>
       </c>
       <c r="H90">
-        <v>0.0005929554084517007</v>
-      </c>
-      <c r="I90">
-        <v>0.0007738742729097694</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.000707082831908957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0002221317153486471</v>
+        <v>0.0002465960294596352</v>
       </c>
       <c r="C91">
-        <v>0.0003746899775230675</v>
+        <v>0.0004436716825890906</v>
       </c>
       <c r="D91">
-        <v>0.0002996578718358379</v>
+        <v>0.0003015711056457533</v>
       </c>
       <c r="E91">
-        <v>0.0004500219282101539</v>
+        <v>0.0004517830557539978</v>
       </c>
       <c r="F91">
-        <v>0.0002453080152980365</v>
+        <v>0.0002498126415246843</v>
       </c>
       <c r="G91">
-        <v>0.0002647305067305211</v>
+        <v>0.0003259110483835468</v>
       </c>
       <c r="H91">
-        <v>0.0002475164345884295</v>
-      </c>
-      <c r="I91">
-        <v>0.0002583019798845613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.0002875965092152364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0004567632927265152</v>
+        <v>0.0004962221377702764</v>
       </c>
       <c r="C92">
-        <v>0.000483608269697765</v>
+        <v>0.0005512111303704316</v>
       </c>
       <c r="D92">
-        <v>0.0003770137556168907</v>
+        <v>0.000395324281871142</v>
       </c>
       <c r="E92">
-        <v>0.0004687985031274816</v>
+        <v>0.0004936377372689882</v>
       </c>
       <c r="F92">
-        <v>0.0003266527684769893</v>
+        <v>0.0003440765243767655</v>
       </c>
       <c r="G92">
-        <v>0.0006166572210606038</v>
+        <v>0.0006788291602857304</v>
       </c>
       <c r="H92">
-        <v>0.0004519761090366328</v>
-      </c>
-      <c r="I92">
-        <v>0.0003978266392858856</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0005198733933833534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0003208945507775988</v>
+        <v>0.0003579200397893737</v>
       </c>
       <c r="C93">
-        <v>0.0004290080721200228</v>
+        <v>0.0004768260438891836</v>
       </c>
       <c r="D93">
-        <v>0.0003690781721610278</v>
+        <v>0.0003924727987467088</v>
       </c>
       <c r="E93">
-        <v>0.0003046287871355655</v>
+        <v>0.0003292240177333467</v>
       </c>
       <c r="F93">
-        <v>0.0002655947653391044</v>
+        <v>0.0002835206138592418</v>
       </c>
       <c r="G93">
-        <v>0.0002951422331479159</v>
+        <v>0.000360766952245152</v>
       </c>
       <c r="H93">
-        <v>0.0005018004095122639</v>
-      </c>
-      <c r="I93">
-        <v>0.0002918614370593645</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.000541827626439581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.001126003407177447</v>
+        <v>0.001318322932212609</v>
       </c>
       <c r="C94">
-        <v>0.001117414986976955</v>
+        <v>0.001347844820834478</v>
       </c>
       <c r="D94">
-        <v>0.001839795208015906</v>
+        <v>0.001886331259384837</v>
       </c>
       <c r="E94">
-        <v>0.002514584283178373</v>
+        <v>0.002605853195748639</v>
       </c>
       <c r="F94">
-        <v>0.001908870541404998</v>
+        <v>0.002021230044892201</v>
       </c>
       <c r="G94">
-        <v>0.001352687403733091</v>
+        <v>0.001641580407490977</v>
       </c>
       <c r="H94">
-        <v>0.00150725602753184</v>
-      </c>
-      <c r="I94">
-        <v>0.001266707501065396</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.001802333928540468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0009763348564846121</v>
+        <v>0.001120744954774405</v>
       </c>
       <c r="C95">
-        <v>0.0003883960673343394</v>
+        <v>0.0004296027061660189</v>
       </c>
       <c r="D95">
-        <v>0.0006908470522270956</v>
+        <v>0.0006942465397065702</v>
       </c>
       <c r="E95">
-        <v>0.0007084038171465509</v>
+        <v>0.0007166984128991666</v>
       </c>
       <c r="F95">
-        <v>0.0003063535041826257</v>
+        <v>0.0003427532278556994</v>
       </c>
       <c r="G95">
-        <v>0.0004400922273772221</v>
+        <v>0.0005403270808723188</v>
       </c>
       <c r="H95">
-        <v>0.000385804396371491</v>
-      </c>
-      <c r="I95">
-        <v>0.0004740363448586644</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.0004329041745641323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0002971639660369776</v>
+        <v>0.0003056904472726999</v>
       </c>
       <c r="C96">
-        <v>0.0002953261446001693</v>
+        <v>0.0003558087944688419</v>
       </c>
       <c r="D96">
-        <v>0.0002428938259425397</v>
+        <v>0.0002463577907557895</v>
       </c>
       <c r="E96">
-        <v>0.0004284177543911442</v>
+        <v>0.0004239686103047164</v>
       </c>
       <c r="F96">
-        <v>0.0003357128830870591</v>
+        <v>0.0003335501124837331</v>
       </c>
       <c r="G96">
-        <v>0.0002615560688972379</v>
+        <v>0.0002957277075890288</v>
       </c>
       <c r="H96">
-        <v>0.0004849273274560328</v>
-      </c>
-      <c r="I96">
-        <v>0.0003333030545038879</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.0005544912557407038</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001205716169305806</v>
+        <v>0.001440571291610888</v>
       </c>
       <c r="C97">
-        <v>0.0008532730714073178</v>
+        <v>0.0009041172573977968</v>
       </c>
       <c r="D97">
-        <v>0.0009867256416185503</v>
+        <v>0.001065354161753937</v>
       </c>
       <c r="E97">
-        <v>0.001064388029466597</v>
+        <v>0.001134557343895569</v>
       </c>
       <c r="F97">
-        <v>0.002852477030033988</v>
+        <v>0.002973566415016481</v>
       </c>
       <c r="G97">
-        <v>0.0009520344879384841</v>
+        <v>0.0011894487057798</v>
       </c>
       <c r="H97">
-        <v>0.0009719303183568202</v>
-      </c>
-      <c r="I97">
-        <v>0.0009644133456178294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.001193964109518194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001608447646418496</v>
+        <v>0.001880711319900418</v>
       </c>
       <c r="C98">
-        <v>0.001139075424255512</v>
+        <v>0.001395745476660893</v>
       </c>
       <c r="D98">
-        <v>0.001611438315877573</v>
+        <v>0.00160677199446737</v>
       </c>
       <c r="E98">
-        <v>0.001582540118254146</v>
+        <v>0.001578799970600728</v>
       </c>
       <c r="F98">
-        <v>0.002200932096523319</v>
+        <v>0.002192718714602663</v>
       </c>
       <c r="G98">
-        <v>0.001255492093146969</v>
+        <v>0.001545106645770497</v>
       </c>
       <c r="H98">
-        <v>0.001212506439029828</v>
-      </c>
-      <c r="I98">
-        <v>0.001248031292589198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.001501864290886399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001192633541907885</v>
+        <v>0.00143993885011703</v>
       </c>
       <c r="C99">
-        <v>0.002805671571532279</v>
+        <v>0.003399076897956816</v>
       </c>
       <c r="D99">
-        <v>0.00237444791814385</v>
+        <v>0.002356345545418657</v>
       </c>
       <c r="E99">
-        <v>0.002458662956887815</v>
+        <v>0.002368466458539263</v>
       </c>
       <c r="F99">
-        <v>0.002667788545256419</v>
+        <v>0.002682106587717421</v>
       </c>
       <c r="G99">
-        <v>0.001482039577725255</v>
+        <v>0.001834544446734826</v>
       </c>
       <c r="H99">
-        <v>0.001307221886245322</v>
-      </c>
-      <c r="I99">
-        <v>0.001772427533248827</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.001562853834140079</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0002384948495385466</v>
+        <v>0.0002823931996529858</v>
       </c>
       <c r="C100">
-        <v>0.0002246081464590115</v>
+        <v>0.0002750476343668463</v>
       </c>
       <c r="D100">
-        <v>0.000335704602265884</v>
+        <v>0.0003584961676450191</v>
       </c>
       <c r="E100">
-        <v>0.000222723488961362</v>
+        <v>0.0002592651336207094</v>
       </c>
       <c r="F100">
-        <v>0.000277755691179194</v>
+        <v>0.0002925141238699128</v>
       </c>
       <c r="G100">
-        <v>0.0004561314407584824</v>
+        <v>0.0004956334949488935</v>
       </c>
       <c r="H100">
-        <v>0.0003623671711502467</v>
-      </c>
-      <c r="I100">
-        <v>0.0002289734984208149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.0003974081868445219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0002217147006280139</v>
+        <v>0.0002163610443458016</v>
       </c>
       <c r="C101">
-        <v>0.0003033575016244333</v>
+        <v>0.0003715083419223831</v>
       </c>
       <c r="D101">
-        <v>0.0001834586799602653</v>
+        <v>0.0001647331454118971</v>
       </c>
       <c r="E101">
-        <v>0.0003221998361701774</v>
+        <v>0.0003158949146612233</v>
       </c>
       <c r="F101">
-        <v>0.0003653606356583605</v>
+        <v>0.000402020743791389</v>
       </c>
       <c r="G101">
-        <v>0.0001983477804336329</v>
+        <v>0.0001923788674332875</v>
       </c>
       <c r="H101">
-        <v>0.0001983296798370999</v>
-      </c>
-      <c r="I101">
-        <v>0.0003122555313704288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0001875436592263516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0004817451705528122</v>
+        <v>0.0005613015729809426</v>
       </c>
       <c r="C102">
-        <v>0.0003142377694703883</v>
+        <v>0.0003279744106905803</v>
       </c>
       <c r="D102">
-        <v>0.0004439519468845459</v>
+        <v>0.000458718287239609</v>
       </c>
       <c r="E102">
-        <v>0.0007367316164104606</v>
+        <v>0.0007704826258181852</v>
       </c>
       <c r="F102">
-        <v>0.0002946079116946316</v>
+        <v>0.0003592296442337118</v>
       </c>
       <c r="G102">
-        <v>0.0002775602273480259</v>
+        <v>0.0003126423652552539</v>
       </c>
       <c r="H102">
-        <v>0.0002943118542887416</v>
-      </c>
-      <c r="I102">
-        <v>0.0003394114482802957</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.0003389785850649953</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0004412333895835161</v>
+        <v>0.0005457245418109324</v>
       </c>
       <c r="C103">
-        <v>0.001129185803953838</v>
+        <v>0.001310856708930394</v>
       </c>
       <c r="D103">
-        <v>0.0005674806088274583</v>
+        <v>0.0007092705705518121</v>
       </c>
       <c r="E103">
-        <v>0.0007655176893797745</v>
+        <v>0.0008892665688354139</v>
       </c>
       <c r="F103">
-        <v>0.002297536223532625</v>
+        <v>0.002477621815011587</v>
       </c>
       <c r="G103">
-        <v>0.0004717274762608627</v>
+        <v>0.0005620646910943291</v>
       </c>
       <c r="H103">
-        <v>0.000601419814282342</v>
-      </c>
-      <c r="I103">
-        <v>0.0005235186069491376</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.0006926361689054499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0008359131090721802</v>
+        <v>0.0009530075548375721</v>
       </c>
       <c r="C104">
-        <v>0.001016983602019854</v>
+        <v>0.001098158642845777</v>
       </c>
       <c r="D104">
-        <v>0.0005768778433760195</v>
+        <v>0.0006680900552637163</v>
       </c>
       <c r="E104">
-        <v>0.0009295771573465928</v>
+        <v>0.00100998996092594</v>
       </c>
       <c r="F104">
-        <v>0.001390521631742069</v>
+        <v>0.001554852359233406</v>
       </c>
       <c r="G104">
-        <v>0.0005252932076870867</v>
+        <v>0.0006036835010468927</v>
       </c>
       <c r="H104">
-        <v>0.0005348749457160672</v>
-      </c>
-      <c r="I104">
-        <v>0.0005810803462921183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.0006477040207538709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0004284303148033577</v>
+        <v>0.0005238229057556559</v>
       </c>
       <c r="C105">
-        <v>0.000831355043765276</v>
+        <v>0.0009067619120645182</v>
       </c>
       <c r="D105">
-        <v>0.0006901232984185796</v>
+        <v>0.0007734104359309276</v>
       </c>
       <c r="E105">
-        <v>0.001183641658811275</v>
+        <v>0.001269068330436207</v>
       </c>
       <c r="F105">
-        <v>0.001195002252741604</v>
+        <v>0.001380366114246865</v>
       </c>
       <c r="G105">
-        <v>0.0004960592865026498</v>
+        <v>0.0005879266538921391</v>
       </c>
       <c r="H105">
-        <v>0.0005714479634140462</v>
-      </c>
-      <c r="I105">
-        <v>0.0005154256594875903</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.0006587688091714084</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0005957220782857401</v>
+        <v>0.0007445685313680462</v>
       </c>
       <c r="C106">
-        <v>0.0005213672531590389</v>
+        <v>0.0006393027801609515</v>
       </c>
       <c r="D106">
-        <v>0.0009813822602754822</v>
+        <v>0.0009799447594870392</v>
       </c>
       <c r="E106">
-        <v>0.0009013641532624672</v>
+        <v>0.000899804681903328</v>
       </c>
       <c r="F106">
-        <v>0.0008266861011841454</v>
+        <v>0.0008171002410197599</v>
       </c>
       <c r="G106">
-        <v>0.0005286464008242331</v>
+        <v>0.0006401250681528664</v>
       </c>
       <c r="H106">
-        <v>0.0006762976811760596</v>
-      </c>
-      <c r="I106">
-        <v>0.0005871542230833403</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.0008339359152190998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0005244980689908916</v>
+        <v>0.0006295518169998228</v>
       </c>
       <c r="C107">
-        <v>0.0004349967358080264</v>
+        <v>0.0004415837524535973</v>
       </c>
       <c r="D107">
-        <v>0.0003821576213282324</v>
+        <v>0.0003853070452028138</v>
       </c>
       <c r="E107">
-        <v>0.0006497301792081711</v>
+        <v>0.0006603724778329244</v>
       </c>
       <c r="F107">
-        <v>0.0005091685352176891</v>
+        <v>0.0005689312792607837</v>
       </c>
       <c r="G107">
-        <v>0.0003565716785031304</v>
+        <v>0.000399052061063468</v>
       </c>
       <c r="H107">
-        <v>0.0003489746415598639</v>
-      </c>
-      <c r="I107">
-        <v>0.0004175098666969191</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.0004005556457575174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0003238531211298298</v>
+        <v>0.000343288120672468</v>
       </c>
       <c r="C108">
-        <v>0.0002695092037396821</v>
+        <v>0.0003075899278926113</v>
       </c>
       <c r="D108">
-        <v>0.0004136012342555558</v>
+        <v>0.0004365843974546834</v>
       </c>
       <c r="E108">
-        <v>0.0003804507572965145</v>
+        <v>0.0004046977245113843</v>
       </c>
       <c r="F108">
-        <v>0.000380165516772818</v>
+        <v>0.0004539228600623011</v>
       </c>
       <c r="G108">
-        <v>0.0003556462666964425</v>
+        <v>0.0004204468055904415</v>
       </c>
       <c r="H108">
-        <v>0.0005226605679039569</v>
-      </c>
-      <c r="I108">
-        <v>0.0002682522160666341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.0006051892160017706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0003159081705635755</v>
+        <v>0.0003691486835602377</v>
       </c>
       <c r="C109">
-        <v>0.000296651906430213</v>
+        <v>0.0003663616365380901</v>
       </c>
       <c r="D109">
-        <v>0.0004559819499429183</v>
+        <v>0.0004764018793123822</v>
       </c>
       <c r="E109">
-        <v>0.0003070506466220355</v>
+        <v>0.0003401980050994943</v>
       </c>
       <c r="F109">
-        <v>0.000604216123656829</v>
+        <v>0.0006264316347890808</v>
       </c>
       <c r="G109">
-        <v>0.0005929204467630345</v>
+        <v>0.0006673555823449433</v>
       </c>
       <c r="H109">
-        <v>0.000308598914209643</v>
-      </c>
-      <c r="I109">
-        <v>0.0003050255077835166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.000374129612627002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.001001287528661916</v>
+        <v>0.001196392236727433</v>
       </c>
       <c r="C110">
-        <v>0.0006326403685549568</v>
+        <v>0.0007511743482890982</v>
       </c>
       <c r="D110">
-        <v>0.001183657131787154</v>
+        <v>0.00122048732589597</v>
       </c>
       <c r="E110">
-        <v>0.0009191364911583128</v>
+        <v>0.001003941538879021</v>
       </c>
       <c r="F110">
-        <v>0.00213297926189994</v>
+        <v>0.00219336678263433</v>
       </c>
       <c r="G110">
-        <v>0.000761457901071248</v>
+        <v>0.0009381987573480422</v>
       </c>
       <c r="H110">
-        <v>0.0007433185033573148</v>
-      </c>
-      <c r="I110">
-        <v>0.0007893318803189803</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.0009269691697240214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.003188356901585379</v>
+        <v>0.00389192917433306</v>
       </c>
       <c r="C111">
-        <v>0.004383297454438768</v>
+        <v>0.005210106254398248</v>
       </c>
       <c r="D111">
-        <v>0.004468594625530765</v>
+        <v>0.004957007177793743</v>
       </c>
       <c r="E111">
-        <v>0.003887897588428095</v>
+        <v>0.004249648080505759</v>
       </c>
       <c r="F111">
-        <v>0.006113473558320603</v>
+        <v>0.006700456548394225</v>
       </c>
       <c r="G111">
-        <v>0.002430579321368728</v>
+        <v>0.002953628773864149</v>
       </c>
       <c r="H111">
-        <v>0.003820402455138108</v>
-      </c>
-      <c r="I111">
-        <v>0.002213847683497146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.004632089889540053</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.001418460160686146</v>
+        <v>0.001717621164793619</v>
       </c>
       <c r="C112">
-        <v>0.001530734242033218</v>
+        <v>0.001842556394810846</v>
       </c>
       <c r="D112">
-        <v>0.001399219909251706</v>
+        <v>0.001418785653307024</v>
       </c>
       <c r="E112">
-        <v>0.001591698868454742</v>
+        <v>0.001607728904095114</v>
       </c>
       <c r="F112">
-        <v>0.001973737760326061</v>
+        <v>0.001965842171931127</v>
       </c>
       <c r="G112">
-        <v>0.0009769688609099661</v>
+        <v>0.001189734199040328</v>
       </c>
       <c r="H112">
-        <v>0.0009252216199947014</v>
-      </c>
-      <c r="I112">
-        <v>0.001170867742733786</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.001063014408416392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0003303646079822158</v>
+        <v>0.0003571367116431818</v>
       </c>
       <c r="C113">
-        <v>0.0002513197745402142</v>
+        <v>0.0002818965324229359</v>
       </c>
       <c r="D113">
-        <v>0.0003627809010973431</v>
+        <v>0.0003807948841156495</v>
       </c>
       <c r="E113">
-        <v>0.0004805160544078605</v>
+        <v>0.0005041267173425281</v>
       </c>
       <c r="F113">
-        <v>0.0001665102932371645</v>
+        <v>0.000183823824021756</v>
       </c>
       <c r="G113">
-        <v>0.0002500442242062949</v>
+        <v>0.0002823378039095653</v>
       </c>
       <c r="H113">
-        <v>0.000299591453245797</v>
-      </c>
-      <c r="I113">
-        <v>0.0002789731962132415</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.0003373229019106729</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0003272143672071983</v>
+        <v>0.0003652092441894115</v>
       </c>
       <c r="C114">
-        <v>0.0002175511221662038</v>
+        <v>0.000265555809402083</v>
       </c>
       <c r="D114">
-        <v>0.000318875535038767</v>
+        <v>0.0003342096707047427</v>
       </c>
       <c r="E114">
-        <v>0.0003716028664684394</v>
+        <v>0.0003899125681137374</v>
       </c>
       <c r="F114">
-        <v>0.0002459539091507589</v>
+        <v>0.0002694300425613131</v>
       </c>
       <c r="G114">
-        <v>0.0002280390547101256</v>
+        <v>0.0002663343600301176</v>
       </c>
       <c r="H114">
-        <v>0.0002162442411061585</v>
-      </c>
-      <c r="I114">
-        <v>0.0002156310166104251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.0002464285417820288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0004342336058879111</v>
+        <v>0.0004459205994937214</v>
       </c>
       <c r="C115">
-        <v>0.0004380147230374868</v>
+        <v>0.0005314607527925332</v>
       </c>
       <c r="D115">
-        <v>0.0006116263753084744</v>
+        <v>0.0006133133019198827</v>
       </c>
       <c r="E115">
-        <v>0.000513381393889827</v>
+        <v>0.0005122111654654638</v>
       </c>
       <c r="F115">
-        <v>0.0003290645160049728</v>
+        <v>0.0003405340297910783</v>
       </c>
       <c r="G115">
-        <v>0.0004419024277608458</v>
+        <v>0.000535890145178894</v>
       </c>
       <c r="H115">
-        <v>0.0003774387379500059</v>
-      </c>
-      <c r="I115">
-        <v>0.0003845010129902784</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.0004717443142929</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0001431335408861378</v>
+        <v>0.0001691010431272085</v>
       </c>
       <c r="C116">
-        <v>0.0001070045177568206</v>
+        <v>0.0001298861437444846</v>
       </c>
       <c r="D116">
-        <v>0.0001104698534481799</v>
+        <v>0.0001290946617299645</v>
       </c>
       <c r="E116">
-        <v>0.0001052916107868894</v>
+        <v>0.0001166427729679244</v>
       </c>
       <c r="F116">
-        <v>0.0003132940131236262</v>
+        <v>0.000314655477562591</v>
       </c>
       <c r="G116">
-        <v>0.0002186843429916626</v>
+        <v>0.0002250694699604459</v>
       </c>
       <c r="H116">
-        <v>0.0001022832224708979</v>
-      </c>
-      <c r="I116">
-        <v>0.0001361465951571183</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.0001204385638935802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0003411132073809193</v>
+        <v>0.0004037596422134074</v>
       </c>
       <c r="C117">
-        <v>0.0002727983021193916</v>
+        <v>0.0003279016119082254</v>
       </c>
       <c r="D117">
-        <v>0.0002286359297333161</v>
+        <v>0.0002226653514063002</v>
       </c>
       <c r="E117">
-        <v>0.000185688722285182</v>
+        <v>0.0001933080751975864</v>
       </c>
       <c r="F117">
-        <v>0.0001512700085191444</v>
+        <v>0.0001482436102917789</v>
       </c>
       <c r="G117">
-        <v>0.0002654733195233743</v>
+        <v>0.0002526062875886693</v>
       </c>
       <c r="H117">
-        <v>0.0001935371172455762</v>
-      </c>
-      <c r="I117">
-        <v>0.0002447620270229945</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.0001935196664563941</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0004157544021580958</v>
+        <v>0.0004919797913373684</v>
       </c>
       <c r="C118">
-        <v>0.0004021495407861001</v>
+        <v>0.000478032206679772</v>
       </c>
       <c r="D118">
-        <v>0.000778264537760831</v>
+        <v>0.00078632755150261</v>
       </c>
       <c r="E118">
-        <v>0.0008909751331089326</v>
+        <v>0.0009038570156835766</v>
       </c>
       <c r="F118">
-        <v>0.0003091883911838504</v>
+        <v>0.0003373032177612435</v>
       </c>
       <c r="G118">
-        <v>0.0004359934809602856</v>
+        <v>0.0005449297066973094</v>
       </c>
       <c r="H118">
-        <v>0.0006695088997890535</v>
-      </c>
-      <c r="I118">
-        <v>0.000444510644961374</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.0007787529916544796</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0004434363491472869</v>
+        <v>0.0005059897722835801</v>
       </c>
       <c r="C119">
-        <v>0.0003030093508187717</v>
+        <v>0.0003681904808778526</v>
       </c>
       <c r="D119">
-        <v>0.0003537659798358493</v>
+        <v>0.0003736659847364093</v>
       </c>
       <c r="E119">
-        <v>0.0006612630328260359</v>
+        <v>0.0007051236703128409</v>
       </c>
       <c r="F119">
-        <v>0.0003020036236524588</v>
+        <v>0.0003433346206814147</v>
       </c>
       <c r="G119">
-        <v>0.0002692014160697838</v>
+        <v>0.0003364625169974057</v>
       </c>
       <c r="H119">
-        <v>0.0003299237622030767</v>
-      </c>
-      <c r="I119">
-        <v>0.0002754724139267519</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.0003508215140494455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0004195161573509137</v>
+        <v>0.0004988267852269961</v>
       </c>
       <c r="C120">
-        <v>0.0002420039418479698</v>
+        <v>0.0002620952142932876</v>
       </c>
       <c r="D120">
-        <v>0.0001978523803024666</v>
+        <v>0.0001900396727976794</v>
       </c>
       <c r="E120">
-        <v>0.0002825120854847507</v>
+        <v>0.0002585204888718826</v>
       </c>
       <c r="F120">
-        <v>0.0002084759665415641</v>
+        <v>0.0001890392549514645</v>
       </c>
       <c r="G120">
-        <v>0.000308873533849574</v>
+        <v>0.0002837819390088365</v>
       </c>
       <c r="H120">
-        <v>0.00022884754501635</v>
-      </c>
-      <c r="I120">
-        <v>0.0003297470129158658</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.0002654033242091571</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0005644076471041374</v>
+        <v>0.0005940888844781118</v>
       </c>
       <c r="C121">
-        <v>0.0005454330975785845</v>
+        <v>0.0006366769123365916</v>
       </c>
       <c r="D121">
-        <v>0.0006789755249605281</v>
+        <v>0.0007111217067326016</v>
       </c>
       <c r="E121">
-        <v>0.0004772741965904361</v>
+        <v>0.000593238538320774</v>
       </c>
       <c r="F121">
-        <v>0.0008095814877988198</v>
+        <v>0.0008361001831867963</v>
       </c>
       <c r="G121">
-        <v>0.000614748134213354</v>
+        <v>0.0007122112258342621</v>
       </c>
       <c r="H121">
-        <v>0.0004703118957631218</v>
-      </c>
-      <c r="I121">
-        <v>0.000433311226661153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.0005753292316060045</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.004304523925284975</v>
+        <v>0.005136323646897887</v>
       </c>
       <c r="C122">
-        <v>0.0008357173722897612</v>
+        <v>0.0009727463220155721</v>
       </c>
       <c r="D122">
-        <v>0.001705082372603599</v>
+        <v>0.001844634297333162</v>
       </c>
       <c r="E122">
-        <v>0.001366586700037594</v>
+        <v>0.001475196886791611</v>
       </c>
       <c r="F122">
-        <v>0.002817008306055572</v>
+        <v>0.002897270230163574</v>
       </c>
       <c r="G122">
-        <v>0.0007845462493744309</v>
+        <v>0.0008560474664412519</v>
       </c>
       <c r="H122">
-        <v>0.0007901785679713959</v>
-      </c>
-      <c r="I122">
-        <v>0.001404976827138529</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.0008145798264959814</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0003208885127174018</v>
+        <v>0.0003660203733458709</v>
       </c>
       <c r="C123">
-        <v>0.0003306114103128518</v>
+        <v>0.0003363541508410983</v>
       </c>
       <c r="D123">
-        <v>0.0001639652693060138</v>
+        <v>0.0001777166945003225</v>
       </c>
       <c r="E123">
-        <v>0.0002290273725826536</v>
+        <v>0.0002302035116258234</v>
       </c>
       <c r="F123">
-        <v>0.0001468912063108112</v>
+        <v>0.0001720799026368545</v>
       </c>
       <c r="G123">
-        <v>0.0002525311595363512</v>
+        <v>0.0002566208999920732</v>
       </c>
       <c r="H123">
-        <v>0.0003757251643352289</v>
-      </c>
-      <c r="I123">
-        <v>0.0002569845106638819</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.0004141117870821001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0002370711726267229</v>
+        <v>0.0002789966915969421</v>
       </c>
       <c r="C124">
-        <v>0.0003873028391322346</v>
+        <v>0.0004459652066660284</v>
       </c>
       <c r="D124">
-        <v>0.0003087093786510703</v>
+        <v>0.0003291911238899394</v>
       </c>
       <c r="E124">
-        <v>0.000262531668768772</v>
+        <v>0.000287970657841427</v>
       </c>
       <c r="F124">
-        <v>0.000450410730066304</v>
+        <v>0.000477538985751941</v>
       </c>
       <c r="G124">
-        <v>0.0006235255818676429</v>
+        <v>0.0006902100652716655</v>
       </c>
       <c r="H124">
-        <v>0.0002403235336400724</v>
-      </c>
-      <c r="I124">
-        <v>0.0002757003422703983</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.0002825411487942385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004322671455459825</v>
+        <v>0.0004761643320215928</v>
       </c>
       <c r="C125">
-        <v>0.0003552310962335094</v>
+        <v>0.0003979033046073476</v>
       </c>
       <c r="D125">
-        <v>0.0002414902714517197</v>
+        <v>0.0002875433161193941</v>
       </c>
       <c r="E125">
-        <v>0.0002692838963450189</v>
+        <v>0.0003140499472401971</v>
       </c>
       <c r="F125">
-        <v>0.0003487534021025302</v>
+        <v>0.0003737882241259391</v>
       </c>
       <c r="G125">
-        <v>0.0006913288178167137</v>
+        <v>0.0007353916869568923</v>
       </c>
       <c r="H125">
-        <v>0.0003546153329915984</v>
-      </c>
-      <c r="I125">
-        <v>0.0003118302391558414</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.0003912593495363659</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0005968666267369411</v>
+        <v>0.000669409615890554</v>
       </c>
       <c r="C126">
-        <v>0.0002427071850197041</v>
+        <v>0.0002964494815373059</v>
       </c>
       <c r="D126">
-        <v>0.000344303823187753</v>
+        <v>0.0004097685985033415</v>
       </c>
       <c r="E126">
-        <v>0.000260326795040221</v>
+        <v>0.0003177600529570261</v>
       </c>
       <c r="F126">
-        <v>0.0004849268569750172</v>
+        <v>0.0005114303070986214</v>
       </c>
       <c r="G126">
-        <v>0.0004939124105890717</v>
+        <v>0.0005383003403423523</v>
       </c>
       <c r="H126">
-        <v>0.0002972611447052874</v>
-      </c>
-      <c r="I126">
-        <v>0.0002622437675501893</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.0003291228964066464</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0005950263627396005</v>
+        <v>0.0007213885716219959</v>
       </c>
       <c r="C127">
-        <v>0.0006765438699353955</v>
+        <v>0.0008320436300951625</v>
       </c>
       <c r="D127">
-        <v>0.001048448909651872</v>
+        <v>0.001060363908971698</v>
       </c>
       <c r="E127">
-        <v>0.0006788580227432375</v>
+        <v>0.0007250616477524037</v>
       </c>
       <c r="F127">
-        <v>0.001236681187868071</v>
+        <v>0.001263884416647063</v>
       </c>
       <c r="G127">
-        <v>0.0005900152482760778</v>
+        <v>0.00071778204061247</v>
       </c>
       <c r="H127">
-        <v>0.0006297868222346606</v>
-      </c>
-      <c r="I127">
-        <v>0.0006492687255768078</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.0006864331000218517</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.001714922480931834</v>
+        <v>0.001946721200263432</v>
       </c>
       <c r="C128">
-        <v>0.0008066530818030298</v>
+        <v>0.001008203336493202</v>
       </c>
       <c r="D128">
-        <v>0.001121837045449068</v>
+        <v>0.001143227430772228</v>
       </c>
       <c r="E128">
-        <v>0.0008847014586481968</v>
+        <v>0.0009712868798147096</v>
       </c>
       <c r="F128">
-        <v>0.001880041808545652</v>
+        <v>0.001918149346601501</v>
       </c>
       <c r="G128">
-        <v>0.0007188038962491602</v>
+        <v>0.0008582964347493278</v>
       </c>
       <c r="H128">
-        <v>0.0007601844080080622</v>
-      </c>
-      <c r="I128">
-        <v>0.0008817626708940864</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.0009098831086058095</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001591068075186606</v>
+        <v>0.001808547875902528</v>
       </c>
       <c r="C129">
-        <v>0.0008047636924398469</v>
+        <v>0.0009910971629657113</v>
       </c>
       <c r="D129">
-        <v>0.001273613315142018</v>
+        <v>0.001344141178121894</v>
       </c>
       <c r="E129">
-        <v>0.001041807320053024</v>
+        <v>0.001157734959652557</v>
       </c>
       <c r="F129">
-        <v>0.002511353463843618</v>
+        <v>0.002615661540647782</v>
       </c>
       <c r="G129">
-        <v>0.0008142414463173238</v>
+        <v>0.001008125477721697</v>
       </c>
       <c r="H129">
-        <v>0.0008422347325402689</v>
-      </c>
-      <c r="I129">
-        <v>0.0009104554415811932</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.001034383710506185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.001085370249572408</v>
+        <v>0.001309597121342605</v>
       </c>
       <c r="C130">
-        <v>0.0006858414313245953</v>
+        <v>0.00079299334391385</v>
       </c>
       <c r="D130">
-        <v>0.001278903532885541</v>
+        <v>0.001255877236578226</v>
       </c>
       <c r="E130">
-        <v>0.001242843043081383</v>
+        <v>0.001237639859803437</v>
       </c>
       <c r="F130">
-        <v>0.001274413782856116</v>
+        <v>0.001274814237191069</v>
       </c>
       <c r="G130">
-        <v>0.0009397159320047572</v>
+        <v>0.001134872336989019</v>
       </c>
       <c r="H130">
-        <v>0.0007771581825783738</v>
-      </c>
-      <c r="I130">
-        <v>0.0009319133151989517</v>
+        <v>0.0009337523922428392</v>
       </c>
     </row>
   </sheetData>
